--- a/data/Monitoring_points/vazoes_corrigidas.xlsx
+++ b/data/Monitoring_points/vazoes_corrigidas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncost\OneDrive\Área de Trabalho\Doutorado\UFPR\Modelagem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EA12C8-7C9D-4724-91F4-977F65D90E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>EPC VILA ZILDA - VAZÕES - 2011 A 2020</t>
   </si>
@@ -51,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-416]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -242,22 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -475,6 +466,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,6 +493,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -494,7 +503,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -532,9 +541,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,9 +576,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,9 +628,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -777,61 +820,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51:J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="31" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="31" t="s">
+      <c r="I1" s="105"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -844,776 +887,776 @@
       <c r="D2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="90" t="s">
+      <c r="N2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="90" t="s">
+      <c r="O2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="90" t="s">
+      <c r="P2" s="85" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>40544</v>
       </c>
       <c r="B3" s="10">
         <v>512.46</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="29">
         <v>2795.87</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="47">
         <v>33.098864994026286</v>
       </c>
-      <c r="K3" s="74">
+      <c r="K3" s="69">
         <v>687.99</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="N3" s="91">
+      <c r="L3" s="67"/>
+      <c r="N3" s="86">
         <v>664.77</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>40575</v>
       </c>
       <c r="B4" s="10">
         <v>388.86</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="29">
         <v>2524.96</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="47">
         <v>21.457919973544975</v>
       </c>
-      <c r="K4" s="74">
+      <c r="K4" s="69">
         <v>380</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="N4" s="91">
+      <c r="L4" s="67"/>
+      <c r="N4" s="86">
         <v>545</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>40603</v>
       </c>
       <c r="B5" s="10">
         <v>493.31</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="29">
         <v>2882.52</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="47">
         <v>30.992383512544802</v>
       </c>
-      <c r="K5" s="74">
+      <c r="K5" s="69">
         <v>447.81</v>
       </c>
-      <c r="L5" s="72"/>
-      <c r="N5" s="91">
+      <c r="L5" s="67"/>
+      <c r="N5" s="86">
         <v>448.68</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>40634</v>
       </c>
       <c r="B6" s="10">
         <v>566.63</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="29">
         <v>2674.2363888888885</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="47">
         <v>31.345293209876544</v>
       </c>
-      <c r="K6" s="74">
+      <c r="K6" s="69">
         <v>414.11</v>
       </c>
-      <c r="L6" s="72"/>
-      <c r="N6" s="91">
+      <c r="L6" s="67"/>
+      <c r="N6" s="86">
         <v>615.77</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>40664</v>
       </c>
       <c r="B7" s="10">
         <v>452.33</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="29">
         <v>2412.4548984157673</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="47">
         <v>21.931003584229391</v>
       </c>
-      <c r="K7" s="74">
+      <c r="K7" s="69">
         <v>321</v>
       </c>
-      <c r="L7" s="72"/>
-      <c r="N7" s="91">
+      <c r="L7" s="67"/>
+      <c r="N7" s="86">
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>40695</v>
       </c>
       <c r="B8" s="10">
         <v>369.45</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="29">
         <v>2130.86</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="47">
         <v>21.679783950617285</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="69">
         <v>264.52999999999997</v>
       </c>
-      <c r="L8" s="72"/>
-      <c r="N8" s="91">
+      <c r="L8" s="67"/>
+      <c r="N8" s="86">
         <v>488.12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>40725</v>
       </c>
       <c r="B9" s="10">
         <v>479.5</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="29">
         <v>2126.09</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="47">
         <v>24.531436678614099</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="69">
         <v>292.69</v>
       </c>
-      <c r="L9" s="72"/>
-      <c r="N9" s="91">
+      <c r="L9" s="67"/>
+      <c r="N9" s="86">
         <v>404.49</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>40756</v>
       </c>
       <c r="B10" s="10">
         <v>474.12</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="29">
         <v>2157.2600000000002</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="47">
         <v>38.08542413381123</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="69">
         <v>312.38</v>
       </c>
-      <c r="L10" s="72"/>
-      <c r="N10" s="91">
+      <c r="L10" s="67"/>
+      <c r="N10" s="86">
         <v>442.03</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>40787</v>
       </c>
       <c r="B11" s="10">
         <v>433.64</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="29">
         <v>2146.25</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="47">
         <v>31.547839506172838</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="69">
         <v>387.8</v>
       </c>
-      <c r="L11" s="72"/>
-      <c r="N11" s="91">
+      <c r="L11" s="67"/>
+      <c r="N11" s="86">
         <v>367.65</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>40817</v>
       </c>
       <c r="B12" s="10">
         <v>372.28</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="29">
         <v>2346.16</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="47">
         <v>38.193697729988052</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="69">
         <v>461.69</v>
       </c>
-      <c r="L12" s="72"/>
-      <c r="N12" s="91">
+      <c r="L12" s="67"/>
+      <c r="N12" s="86">
         <v>439.39</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>40848</v>
       </c>
       <c r="B13" s="10">
         <v>277.66000000000003</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="29">
         <v>2248.2600000000002</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="47">
         <v>45.168999999999997</v>
       </c>
-      <c r="K13" s="74">
+      <c r="K13" s="69">
         <v>386.01</v>
       </c>
-      <c r="L13" s="72"/>
-      <c r="N13" s="91">
+      <c r="L13" s="67"/>
+      <c r="N13" s="86">
         <v>397.13</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>40878</v>
       </c>
       <c r="B14" s="10">
         <v>607.04</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="29">
         <v>2325.58</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="47">
         <v>43.73</v>
       </c>
-      <c r="K14" s="74">
+      <c r="K14" s="69">
         <v>409.17</v>
       </c>
-      <c r="L14" s="72"/>
-      <c r="N14" s="91">
+      <c r="L14" s="67"/>
+      <c r="N14" s="86">
         <v>423.62</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>40909</v>
       </c>
       <c r="B15" s="11">
         <v>744.57</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="30">
         <v>2353.1</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="48">
         <v>67.63</v>
       </c>
-      <c r="K15" s="75">
+      <c r="K15" s="70">
         <v>677.14</v>
       </c>
-      <c r="N15" s="92">
+      <c r="N15" s="87">
         <v>707.13</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>40940</v>
       </c>
       <c r="B16" s="11">
         <v>636.85</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="30">
         <v>2194.5100000000002</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="48">
         <v>46.65</v>
       </c>
-      <c r="K16" s="75">
+      <c r="K16" s="70">
         <v>420.82</v>
       </c>
-      <c r="N16" s="92">
+      <c r="N16" s="87">
         <v>548.66999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>40969</v>
       </c>
       <c r="B17" s="11">
         <v>283.89</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="30">
         <v>2176.08</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="48">
         <v>60.29</v>
       </c>
-      <c r="K17" s="75">
+      <c r="K17" s="70">
         <v>376.69</v>
       </c>
-      <c r="N17" s="92">
+      <c r="N17" s="87">
         <v>485.81</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>41000</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="30">
         <v>2530</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="48">
         <v>72.709999999999994</v>
       </c>
-      <c r="K18" s="75">
+      <c r="K18" s="70">
         <v>347.03</v>
       </c>
-      <c r="N18" s="92">
+      <c r="N18" s="87">
         <v>706.03</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>41030</v>
       </c>
       <c r="B19" s="11">
         <v>56.83</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="30">
         <v>2296.34</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="48">
         <v>63.18</v>
       </c>
-      <c r="K19" s="75">
+      <c r="K19" s="70">
         <v>553.71</v>
       </c>
-      <c r="N19" s="92">
+      <c r="N19" s="87">
         <v>719.2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>41061</v>
       </c>
       <c r="B20" s="11">
         <v>46.03</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="30">
         <v>2498.84</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="48">
         <v>73.569999999999993</v>
       </c>
-      <c r="K20" s="75">
+      <c r="K20" s="70">
         <v>429.55</v>
       </c>
-      <c r="N20" s="92">
+      <c r="N20" s="87">
         <v>757.85</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>41091</v>
       </c>
       <c r="B21" s="11">
         <v>59.59</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="30">
         <v>2203.54</v>
       </c>
-      <c r="H21" s="53">
+      <c r="H21" s="48">
         <v>62.94</v>
       </c>
-      <c r="K21" s="75">
+      <c r="K21" s="70">
         <v>694.8</v>
       </c>
-      <c r="N21" s="92">
+      <c r="N21" s="87">
         <v>890.57</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>41122</v>
       </c>
       <c r="B22" s="11">
         <v>54.32</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="30">
         <v>1963.19</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="48">
         <v>42.33</v>
       </c>
-      <c r="K22" s="75">
+      <c r="K22" s="70">
         <v>269.18</v>
       </c>
-      <c r="N22" s="92">
+      <c r="N22" s="87">
         <v>192.49</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>41153</v>
       </c>
       <c r="B23" s="11">
         <v>64.771604938271608</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="30">
         <v>1907.04</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="48">
         <v>52.137731481481481</v>
       </c>
-      <c r="K23" s="75">
+      <c r="K23" s="70">
         <v>322.27999999999997</v>
       </c>
-      <c r="N23" s="92">
+      <c r="N23" s="87">
         <v>233.03</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>41183</v>
       </c>
       <c r="B24" s="11">
         <v>585.92091778931319</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="30">
         <v>2030.45</v>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="48">
         <v>58.375149342891277</v>
       </c>
-      <c r="K24" s="75">
+      <c r="K24" s="70">
         <v>299.17</v>
       </c>
-      <c r="N24" s="92">
+      <c r="N24" s="87">
         <v>364.28</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>41214</v>
       </c>
       <c r="B25" s="11">
         <v>629.11535493827148</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="30">
         <v>2195.6084980237156</v>
       </c>
-      <c r="H25" s="53">
+      <c r="H25" s="48">
         <v>66.653549382716051</v>
       </c>
-      <c r="K25" s="75">
+      <c r="K25" s="70">
         <v>368.07192460317447</v>
       </c>
-      <c r="N25" s="92">
+      <c r="N25" s="87">
         <v>409.77490421455946</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>41244</v>
       </c>
       <c r="B26" s="11">
         <v>602.17869731800772</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="30">
         <v>2491.6030051061612</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="48">
         <v>90.94</v>
       </c>
-      <c r="K26" s="75">
+      <c r="K26" s="70">
         <v>253.88871706390114</v>
       </c>
-      <c r="N26" s="92">
+      <c r="N26" s="87">
         <v>494.15389784946171</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>41275</v>
       </c>
       <c r="B27" s="12">
         <v>670.92293906810039</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="31">
         <v>2731.739606291324</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="49">
         <v>121.54345878136201</v>
       </c>
-      <c r="K27" s="76">
+      <c r="K27" s="71">
         <v>428.55740740740703</v>
       </c>
-      <c r="N27" s="93">
+      <c r="N27" s="88">
         <v>600.78734567901267</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>41306</v>
       </c>
       <c r="B28" s="12">
         <v>726.27314814814815</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="31">
         <v>2606.384090147917</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="49">
         <v>93.798776455026456</v>
       </c>
-      <c r="K28" s="76">
+      <c r="K28" s="71">
         <v>388.95510912698421</v>
       </c>
-      <c r="N28" s="93">
+      <c r="N28" s="88">
         <v>491.16170634920411</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>41334</v>
       </c>
       <c r="B29" s="12">
         <v>618.48</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="31">
         <v>2829.7047184932881</v>
       </c>
-      <c r="H29" s="54">
+      <c r="H29" s="49">
         <v>130.04012345679013</v>
       </c>
-      <c r="K29" s="76">
+      <c r="K29" s="71">
         <v>424.14695340501726</v>
       </c>
-      <c r="N29" s="93">
+      <c r="N29" s="88">
         <v>749.58803763440915</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>41365</v>
       </c>
       <c r="B30" s="12">
         <v>557.37915581098343</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="31">
         <v>2435.2954492328618</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="49">
         <v>75.507263729246489</v>
       </c>
-      <c r="K30" s="76">
+      <c r="K30" s="71">
         <v>353.70625000000001</v>
       </c>
-      <c r="N30" s="93">
+      <c r="N30" s="88">
         <v>373.63796296296141</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>41395</v>
       </c>
       <c r="B31" s="12">
         <v>534.79999999999995</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="31">
         <v>2315.6492147987592</v>
       </c>
-      <c r="H31" s="54">
+      <c r="H31" s="49">
         <v>73.860887096774206</v>
       </c>
-      <c r="K31" s="76">
+      <c r="K31" s="71">
         <v>358.56899641576973</v>
       </c>
-      <c r="N31" s="93">
+      <c r="N31" s="88">
         <v>343.46550179211386</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>41426</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="31">
         <v>2189.3704106280188</v>
       </c>
-      <c r="H32" s="54">
+      <c r="H32" s="49">
         <v>67.590277777777771</v>
       </c>
-      <c r="K32" s="76">
+      <c r="K32" s="71">
         <v>352.7893518518519</v>
       </c>
-      <c r="N32" s="93">
+      <c r="N32" s="88">
         <v>470.86064814815393</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>41456</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="31">
         <v>2338.7450911640954</v>
       </c>
-      <c r="H33" s="54">
+      <c r="H33" s="49">
         <v>93.761574074074076</v>
       </c>
-      <c r="K33" s="76">
+      <c r="K33" s="71">
         <v>394.80081765232973</v>
       </c>
-      <c r="N33" s="93">
+      <c r="N33" s="88">
         <v>364.31910170250899</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>41487</v>
       </c>
       <c r="B34" s="12">
         <v>79.349180911680904</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="31">
         <v>2072.0149769585255</v>
       </c>
-      <c r="H34" s="54">
+      <c r="H34" s="49">
         <v>77.704599761051369</v>
       </c>
-      <c r="K34" s="76">
+      <c r="K34" s="71">
         <v>325.67323476702506</v>
       </c>
-      <c r="N34" s="93">
+      <c r="N34" s="88">
         <v>300.4242741935484</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>41518</v>
       </c>
       <c r="B35" s="12">
         <v>547.56055555555599</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="31">
         <v>2104.2011473429952</v>
       </c>
-      <c r="H35" s="54">
+      <c r="H35" s="49">
         <v>89.882263729246489</v>
       </c>
-      <c r="K35" s="76">
+      <c r="K35" s="71">
         <v>373.67357638888893</v>
       </c>
-      <c r="N35" s="93">
+      <c r="N35" s="88">
         <v>350.00398842592602</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>41548</v>
       </c>
       <c r="B36" s="12">
         <v>636.72</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="31">
         <v>2410.8570442857754</v>
       </c>
-      <c r="H36" s="54">
+      <c r="H36" s="49">
         <v>106.02</v>
       </c>
-      <c r="K36" s="76">
+      <c r="K36" s="71">
         <v>433.66447804659504</v>
       </c>
-      <c r="N36" s="93">
+      <c r="N36" s="88">
         <v>411.14081093189958</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>41579</v>
       </c>
       <c r="B37" s="12">
         <v>700.15000000000009</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="31">
         <v>2480.9452294685998</v>
       </c>
-      <c r="H37" s="54">
+      <c r="H37" s="49">
         <v>134.06288580246914</v>
       </c>
-      <c r="K37" s="76">
+      <c r="K37" s="71">
         <v>505.92867097701145</v>
       </c>
-      <c r="N37" s="93">
+      <c r="N37" s="88">
         <v>351.31704980842915</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>41609</v>
       </c>
       <c r="B38" s="12">
         <v>565.94000000000005</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="31">
         <v>2343.3051075268809</v>
       </c>
-      <c r="H38" s="54">
+      <c r="H38" s="49">
         <v>146.49</v>
       </c>
-      <c r="K38" s="76">
+      <c r="K38" s="71">
         <v>536.59284789426465</v>
       </c>
-      <c r="N38" s="93">
+      <c r="N38" s="88">
         <v>352.99433429118773</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>41640</v>
       </c>
@@ -1626,32 +1669,32 @@
       <c r="D39" s="21">
         <v>70</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="32">
         <v>2312.4057462437186</v>
       </c>
-      <c r="F39" s="44">
+      <c r="F39" s="39">
         <v>4980</v>
       </c>
-      <c r="G39" s="44">
+      <c r="G39" s="39">
         <v>670</v>
       </c>
-      <c r="H39" s="55">
+      <c r="H39" s="50">
         <v>179.34438470728793</v>
       </c>
-      <c r="I39" s="62">
+      <c r="I39" s="57">
         <v>1354</v>
       </c>
-      <c r="J39" s="62">
+      <c r="J39" s="57">
         <v>81</v>
       </c>
-      <c r="K39" s="77">
+      <c r="K39" s="72">
         <v>418.69354838709768</v>
       </c>
-      <c r="N39" s="94">
+      <c r="N39" s="89">
         <v>322.48969534050025</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>41671</v>
       </c>
@@ -1664,32 +1707,32 @@
       <c r="D40" s="21">
         <v>10</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="32">
         <v>2566.2901472650778</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40" s="39">
         <v>5200</v>
       </c>
-      <c r="G40" s="44">
+      <c r="G40" s="39">
         <v>630</v>
       </c>
-      <c r="H40" s="55">
+      <c r="H40" s="50">
         <v>159.94212962962962</v>
       </c>
-      <c r="I40" s="62">
+      <c r="I40" s="57">
         <v>1223</v>
       </c>
-      <c r="J40" s="62">
+      <c r="J40" s="57">
         <v>78</v>
       </c>
-      <c r="K40" s="77">
+      <c r="K40" s="72">
         <v>616.94146825396888</v>
       </c>
-      <c r="N40" s="94">
+      <c r="N40" s="89">
         <v>357.04216269841106</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>41699</v>
       </c>
@@ -1702,32 +1745,32 @@
       <c r="D41" s="21">
         <v>11</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="32">
         <v>2601.7288424866515</v>
       </c>
-      <c r="F41" s="44">
+      <c r="F41" s="39">
         <v>5160</v>
       </c>
-      <c r="G41" s="44">
+      <c r="G41" s="39">
         <v>390</v>
       </c>
-      <c r="H41" s="55">
+      <c r="H41" s="50">
         <v>204.26</v>
       </c>
-      <c r="I41" s="62">
+      <c r="I41" s="57">
         <v>1194</v>
       </c>
-      <c r="J41" s="62">
+      <c r="J41" s="57">
         <v>99</v>
       </c>
-      <c r="K41" s="77">
+      <c r="K41" s="72">
         <v>736.02307347670217</v>
       </c>
-      <c r="N41" s="94">
+      <c r="N41" s="89">
         <v>383.96236559139913</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41730</v>
       </c>
@@ -1740,32 +1783,32 @@
       <c r="D42" s="21">
         <v>19</v>
       </c>
-      <c r="E42" s="37">
+      <c r="E42" s="32">
         <v>2345.3803763440856</v>
       </c>
-      <c r="F42" s="44">
+      <c r="F42" s="39">
         <v>4940</v>
       </c>
-      <c r="G42" s="44">
+      <c r="G42" s="39">
         <v>400</v>
       </c>
-      <c r="H42" s="55">
+      <c r="H42" s="50">
         <v>163.41</v>
       </c>
-      <c r="I42" s="62">
+      <c r="I42" s="57">
         <v>1193</v>
       </c>
-      <c r="J42" s="62">
+      <c r="J42" s="57">
         <v>79</v>
       </c>
-      <c r="K42" s="77">
+      <c r="K42" s="72">
         <v>740.94814814814708</v>
       </c>
-      <c r="N42" s="94">
+      <c r="N42" s="89">
         <v>397.54421296296346</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>41760</v>
       </c>
@@ -1778,32 +1821,32 @@
       <c r="D43" s="21">
         <v>32</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="32">
         <v>2239.447222222223</v>
       </c>
-      <c r="F43" s="44">
+      <c r="F43" s="39">
         <v>3590</v>
       </c>
-      <c r="G43" s="44">
+      <c r="G43" s="39">
         <v>640</v>
       </c>
-      <c r="H43" s="55">
+      <c r="H43" s="50">
         <v>206.54</v>
       </c>
-      <c r="I43" s="62">
+      <c r="I43" s="57">
         <v>1198</v>
       </c>
-      <c r="J43" s="62">
+      <c r="J43" s="57">
         <v>88</v>
       </c>
-      <c r="K43" s="77">
+      <c r="K43" s="72">
         <v>688.51904121863834</v>
       </c>
-      <c r="N43" s="94">
+      <c r="N43" s="89">
         <v>484.43525985663206</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>41791</v>
       </c>
@@ -1816,32 +1859,32 @@
       <c r="D44" s="21">
         <v>20</v>
       </c>
-      <c r="E44" s="37">
+      <c r="E44" s="32">
         <v>2062.2995543672014</v>
       </c>
-      <c r="F44" s="44">
+      <c r="F44" s="39">
         <v>4700</v>
       </c>
-      <c r="G44" s="44">
+      <c r="G44" s="39">
         <v>610</v>
       </c>
-      <c r="H44" s="55">
+      <c r="H44" s="50">
         <v>196.81</v>
       </c>
-      <c r="I44" s="62">
+      <c r="I44" s="57">
         <v>1170</v>
       </c>
-      <c r="J44" s="62">
+      <c r="J44" s="57">
         <v>88</v>
       </c>
-      <c r="K44" s="77">
+      <c r="K44" s="72">
         <v>678.33935185185135</v>
       </c>
-      <c r="N44" s="94">
+      <c r="N44" s="89">
         <v>422.80810185185123</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>41821</v>
       </c>
@@ -1854,32 +1897,32 @@
       <c r="D45" s="21">
         <v>23</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="32">
         <v>2179.613034759358</v>
       </c>
-      <c r="F45" s="44">
+      <c r="F45" s="39">
         <v>4210</v>
       </c>
-      <c r="G45" s="44">
+      <c r="G45" s="39">
         <v>620</v>
       </c>
-      <c r="H45" s="55">
+      <c r="H45" s="50">
         <v>177.71</v>
       </c>
-      <c r="I45" s="62">
+      <c r="I45" s="57">
         <v>1116</v>
       </c>
-      <c r="J45" s="62">
+      <c r="J45" s="57">
         <v>83</v>
       </c>
-      <c r="K45" s="77">
+      <c r="K45" s="72">
         <v>379.81899641577223</v>
       </c>
-      <c r="N45" s="94">
+      <c r="N45" s="89">
         <v>425.98633512544944</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>41852</v>
       </c>
@@ -1892,32 +1935,32 @@
       <c r="D46" s="21">
         <v>19</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="32">
         <v>2103.6613753907363</v>
       </c>
-      <c r="F46" s="44">
+      <c r="F46" s="39">
         <v>4080</v>
       </c>
-      <c r="G46" s="44">
+      <c r="G46" s="39">
         <v>360</v>
       </c>
-      <c r="H46" s="55">
+      <c r="H46" s="50">
         <v>150.87</v>
       </c>
-      <c r="I46" s="62">
+      <c r="I46" s="57">
         <v>778</v>
       </c>
-      <c r="J46" s="62">
+      <c r="J46" s="57">
         <v>34</v>
       </c>
-      <c r="K46" s="77">
+      <c r="K46" s="72">
         <v>327.21953405017985</v>
       </c>
-      <c r="N46" s="94">
+      <c r="N46" s="89">
         <v>381.20138888888818</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>41883</v>
       </c>
@@ -1930,32 +1973,28 @@
       <c r="D47" s="21">
         <v>19</v>
       </c>
-      <c r="E47" s="37">
+      <c r="E47" s="32">
         <v>2056.2699583333329</v>
       </c>
-      <c r="F47" s="44">
+      <c r="F47" s="39">
         <v>4070</v>
       </c>
-      <c r="G47" s="44">
+      <c r="G47" s="39">
         <v>1.2</v>
       </c>
-      <c r="H47" s="55">
+      <c r="H47" s="50">
         <v>247.5</v>
       </c>
-      <c r="I47" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="77">
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="72">
         <v>369.5571759259247</v>
       </c>
-      <c r="N47" s="94">
+      <c r="N47" s="89">
         <v>375.45995370370252</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>41913</v>
       </c>
@@ -1968,32 +2007,26 @@
       <c r="D48" s="21">
         <v>35</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="32">
         <v>2182.63</v>
       </c>
-      <c r="F48" s="44">
+      <c r="F48" s="39">
         <v>4380</v>
       </c>
-      <c r="G48" s="44">
+      <c r="G48" s="39">
         <v>2.37</v>
       </c>
-      <c r="H48" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="77">
+      <c r="H48" s="50"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="72">
         <v>402.78651433691698</v>
       </c>
-      <c r="N48" s="94">
+      <c r="N48" s="89">
         <v>315.37589605734883</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>41944</v>
       </c>
@@ -2006,32 +2039,32 @@
       <c r="D49" s="21">
         <v>11</v>
       </c>
-      <c r="E49" s="37">
+      <c r="E49" s="32">
         <v>2311.4899999999998</v>
       </c>
-      <c r="F49" s="44">
+      <c r="F49" s="39">
         <v>4320</v>
       </c>
-      <c r="G49" s="44">
+      <c r="G49" s="39">
         <v>500</v>
       </c>
-      <c r="H49" s="55">
+      <c r="H49" s="50">
         <v>103.85</v>
       </c>
-      <c r="I49" s="62">
+      <c r="I49" s="57">
         <v>1035</v>
       </c>
-      <c r="J49" s="62">
+      <c r="J49" s="57">
         <v>333</v>
       </c>
-      <c r="K49" s="77">
+      <c r="K49" s="72">
         <v>479.07</v>
       </c>
-      <c r="N49" s="94">
+      <c r="N49" s="89">
         <v>321.17</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>41974</v>
       </c>
@@ -2044,32 +2077,32 @@
       <c r="D50" s="21">
         <v>30</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="32">
         <v>2287.3104234691091</v>
       </c>
-      <c r="F50" s="44">
+      <c r="F50" s="39">
         <v>5210</v>
       </c>
-      <c r="G50" s="44">
+      <c r="G50" s="39">
         <v>500</v>
       </c>
-      <c r="H50" s="55">
+      <c r="H50" s="50">
         <v>469.89</v>
       </c>
-      <c r="I50" s="62">
+      <c r="I50" s="57">
         <v>1276</v>
       </c>
-      <c r="J50" s="62">
+      <c r="J50" s="57">
         <v>10</v>
       </c>
-      <c r="K50" s="77">
+      <c r="K50" s="72">
         <v>429.6</v>
       </c>
-      <c r="N50" s="94">
+      <c r="N50" s="89">
         <v>322.67</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>42005</v>
       </c>
@@ -2082,44 +2115,38 @@
       <c r="D51" s="22">
         <v>15</v>
       </c>
-      <c r="E51" s="38">
+      <c r="E51" s="33">
         <v>2481.5300000000002</v>
       </c>
-      <c r="F51" s="45">
+      <c r="F51" s="40">
         <v>5300</v>
       </c>
-      <c r="G51" s="45">
+      <c r="G51" s="40">
         <v>380</v>
       </c>
-      <c r="H51" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I51" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="J51" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="K51" s="78">
+      <c r="H51" s="51"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="73">
         <v>929.09</v>
       </c>
-      <c r="L51" s="84">
+      <c r="L51" s="79">
         <v>1275.8257884999537</v>
       </c>
-      <c r="M51" s="84">
+      <c r="M51" s="79">
         <v>558.16640400002916</v>
       </c>
-      <c r="N51" s="95">
+      <c r="N51" s="90">
         <v>479.08</v>
       </c>
-      <c r="O51" s="101">
+      <c r="O51" s="96">
         <v>892.73569099994506</v>
       </c>
-      <c r="P51" s="101">
+      <c r="P51" s="96">
         <v>273.06237150001203</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>42036</v>
       </c>
@@ -2132,44 +2159,38 @@
       <c r="D52" s="22">
         <v>42</v>
       </c>
-      <c r="E52" s="38">
+      <c r="E52" s="33">
         <v>2444.3000000000002</v>
       </c>
-      <c r="F52" s="45">
+      <c r="F52" s="40">
         <v>5360</v>
       </c>
-      <c r="G52" s="45">
+      <c r="G52" s="40">
         <v>850</v>
       </c>
-      <c r="H52" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="78">
+      <c r="H52" s="51"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="73">
         <v>881</v>
       </c>
-      <c r="L52" s="84">
+      <c r="L52" s="79">
         <v>1193.1869384999966</v>
       </c>
-      <c r="M52" s="84">
+      <c r="M52" s="79">
         <v>354.16649999999998</v>
       </c>
-      <c r="N52" s="95">
+      <c r="N52" s="90">
         <v>434.47</v>
       </c>
-      <c r="O52" s="101">
+      <c r="O52" s="96">
         <v>678.46495850001372</v>
       </c>
-      <c r="P52" s="101">
+      <c r="P52" s="96">
         <v>261.37487699999315</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>42064</v>
       </c>
@@ -2182,44 +2203,38 @@
       <c r="D53" s="22">
         <v>23</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E53" s="33">
         <v>2401.25</v>
       </c>
-      <c r="F53" s="45">
+      <c r="F53" s="40">
         <v>4760</v>
       </c>
-      <c r="G53" s="45">
+      <c r="G53" s="40">
         <v>670</v>
       </c>
-      <c r="H53" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I53" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="J53" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="K53" s="78">
+      <c r="H53" s="51"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="73">
         <v>761.44937500000003</v>
       </c>
-      <c r="L53" s="84">
+      <c r="L53" s="79">
         <v>1534.7215000000001</v>
       </c>
-      <c r="M53" s="84">
+      <c r="M53" s="79">
         <v>543.05529999999999</v>
       </c>
-      <c r="N53" s="95">
+      <c r="N53" s="90">
         <v>491.18965773809521</v>
       </c>
-      <c r="O53" s="101">
+      <c r="O53" s="96">
         <v>696.52745000000004</v>
       </c>
-      <c r="P53" s="101">
+      <c r="P53" s="96">
         <v>295.13875000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>42095</v>
       </c>
@@ -2232,44 +2247,38 @@
       <c r="D54" s="22">
         <v>17</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54" s="33">
         <v>2224.8673245614041</v>
       </c>
-      <c r="F54" s="45">
+      <c r="F54" s="40">
         <v>4400</v>
       </c>
-      <c r="G54" s="45">
+      <c r="G54" s="40">
         <v>710</v>
       </c>
-      <c r="H54" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="78">
+      <c r="H54" s="51"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="73">
         <v>436.4069027777777</v>
       </c>
-      <c r="L54" s="84">
+      <c r="L54" s="79">
         <v>743.74964999999997</v>
       </c>
-      <c r="M54" s="84">
+      <c r="M54" s="79">
         <v>259.72210000000001</v>
       </c>
-      <c r="N54" s="95">
+      <c r="N54" s="90">
         <v>322.56726986111067</v>
       </c>
-      <c r="O54" s="101">
+      <c r="O54" s="96">
         <v>578.47194999999999</v>
       </c>
-      <c r="P54" s="101">
+      <c r="P54" s="96">
         <v>141.66660000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>42125</v>
       </c>
@@ -2282,44 +2291,38 @@
       <c r="D55" s="22">
         <v>10</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E55" s="33">
         <v>2249.5008553274683</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="40">
         <v>3810</v>
       </c>
-      <c r="G55" s="45">
+      <c r="G55" s="40">
         <v>420</v>
       </c>
-      <c r="H55" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I55" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="J55" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="K55" s="78">
+      <c r="H55" s="51"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="73">
         <v>388.79172222222218</v>
       </c>
-      <c r="L55" s="84">
+      <c r="L55" s="79">
         <v>637.49969999999996</v>
       </c>
-      <c r="M55" s="84">
+      <c r="M55" s="79">
         <v>224.30545000000001</v>
       </c>
-      <c r="N55" s="95">
+      <c r="N55" s="90">
         <v>327.79706944444439</v>
       </c>
-      <c r="O55" s="101">
+      <c r="O55" s="96">
         <v>554.86085000000003</v>
       </c>
-      <c r="P55" s="101">
+      <c r="P55" s="96">
         <v>188.8888</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>42156</v>
       </c>
@@ -2332,44 +2335,38 @@
       <c r="D56" s="22">
         <v>17</v>
       </c>
-      <c r="E56" s="38">
+      <c r="E56" s="33">
         <v>1981.125173852573</v>
       </c>
-      <c r="F56" s="45">
+      <c r="F56" s="40">
         <v>3680</v>
       </c>
-      <c r="G56" s="45">
+      <c r="G56" s="40">
         <v>540</v>
       </c>
-      <c r="H56" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I56" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="J56" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="K56" s="78">
+      <c r="H56" s="51"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="73">
         <v>310.48245833333328</v>
       </c>
-      <c r="L56" s="84">
+      <c r="L56" s="79">
         <v>708.33299999999997</v>
       </c>
-      <c r="M56" s="84">
+      <c r="M56" s="79">
         <v>259.72210000000001</v>
       </c>
-      <c r="N56" s="95">
+      <c r="N56" s="90">
         <v>369.50954166666662</v>
       </c>
-      <c r="O56" s="101">
+      <c r="O56" s="96">
         <v>531.24975000000006</v>
       </c>
-      <c r="P56" s="101">
+      <c r="P56" s="96">
         <v>153.47215</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>42186</v>
       </c>
@@ -2382,44 +2379,44 @@
       <c r="D57" s="22">
         <v>20</v>
       </c>
-      <c r="E57" s="38">
+      <c r="E57" s="33">
         <v>2038.3052611150958</v>
       </c>
-      <c r="F57" s="45">
+      <c r="F57" s="40">
         <v>3740</v>
       </c>
-      <c r="G57" s="45">
+      <c r="G57" s="40">
         <v>250</v>
       </c>
-      <c r="H57" s="56">
+      <c r="H57" s="51">
         <v>169.06</v>
       </c>
-      <c r="I57" s="63">
+      <c r="I57" s="58">
         <v>513</v>
       </c>
-      <c r="J57" s="63">
+      <c r="J57" s="58">
         <v>97</v>
       </c>
-      <c r="K57" s="78">
+      <c r="K57" s="73">
         <v>347.68856182795696</v>
       </c>
-      <c r="L57" s="84">
+      <c r="L57" s="79">
         <v>543.05529999999999</v>
       </c>
-      <c r="M57" s="84">
+      <c r="M57" s="79">
         <v>35.416650000000004</v>
       </c>
-      <c r="N57" s="95">
+      <c r="N57" s="90">
         <v>336.2639650537634</v>
       </c>
-      <c r="O57" s="101">
+      <c r="O57" s="96">
         <v>519.44420000000002</v>
       </c>
-      <c r="P57" s="101">
+      <c r="P57" s="96">
         <v>177.08324999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>42217</v>
       </c>
@@ -2432,44 +2429,44 @@
       <c r="D58" s="22">
         <v>12</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E58" s="33">
         <v>1862.8049113233287</v>
       </c>
-      <c r="F58" s="45">
+      <c r="F58" s="40">
         <v>3650</v>
       </c>
-      <c r="G58" s="45">
+      <c r="G58" s="40">
         <v>560</v>
       </c>
-      <c r="H58" s="56">
+      <c r="H58" s="51">
         <v>129.56</v>
       </c>
-      <c r="I58" s="63">
+      <c r="I58" s="58">
         <v>508</v>
       </c>
-      <c r="J58" s="63">
+      <c r="J58" s="58">
         <v>67</v>
       </c>
-      <c r="K58" s="78">
+      <c r="K58" s="73">
         <v>296.27999999999997</v>
       </c>
-      <c r="L58" s="84">
+      <c r="L58" s="79">
         <v>413.19425000000001</v>
       </c>
-      <c r="M58" s="84">
+      <c r="M58" s="79">
         <v>94.444400000000002</v>
       </c>
-      <c r="N58" s="95">
+      <c r="N58" s="90">
         <v>276.86</v>
       </c>
-      <c r="O58" s="101">
+      <c r="O58" s="96">
         <v>401.38870000000003</v>
       </c>
-      <c r="P58" s="101">
+      <c r="P58" s="96">
         <v>106.24995</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>42248</v>
       </c>
@@ -2482,44 +2479,44 @@
       <c r="D59" s="22">
         <v>7</v>
       </c>
-      <c r="E59" s="38">
+      <c r="E59" s="33">
         <v>2152</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F59" s="40">
         <v>3750</v>
       </c>
-      <c r="G59" s="45">
+      <c r="G59" s="40">
         <v>730</v>
       </c>
-      <c r="H59" s="56">
+      <c r="H59" s="51">
         <v>181.79</v>
       </c>
-      <c r="I59" s="63">
+      <c r="I59" s="58">
         <v>1009</v>
       </c>
-      <c r="J59" s="63">
+      <c r="J59" s="58">
         <v>58</v>
       </c>
-      <c r="K59" s="78">
+      <c r="K59" s="73">
         <v>399.1</v>
       </c>
-      <c r="L59" s="84">
+      <c r="L59" s="79">
         <v>661.11080000000004</v>
       </c>
-      <c r="M59" s="84">
+      <c r="M59" s="79">
         <v>247.91655</v>
       </c>
-      <c r="N59" s="95">
+      <c r="N59" s="90">
         <v>369.78</v>
       </c>
-      <c r="O59" s="101">
+      <c r="O59" s="96">
         <v>590.27750000000003</v>
       </c>
-      <c r="P59" s="101">
+      <c r="P59" s="96">
         <v>106.24995</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>42278</v>
       </c>
@@ -2532,44 +2529,44 @@
       <c r="D60" s="22">
         <v>11</v>
       </c>
-      <c r="E60" s="38">
+      <c r="E60" s="33">
         <v>2184.2860998650499</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="40">
         <v>3720</v>
       </c>
-      <c r="G60" s="45">
+      <c r="G60" s="40">
         <v>1000</v>
       </c>
-      <c r="H60" s="56">
+      <c r="H60" s="51">
         <v>206.06033452807648</v>
       </c>
-      <c r="I60" s="63">
+      <c r="I60" s="58">
         <v>999</v>
       </c>
-      <c r="J60" s="63">
+      <c r="J60" s="58">
         <v>40</v>
       </c>
-      <c r="K60" s="78">
+      <c r="K60" s="73">
         <v>427.28</v>
       </c>
-      <c r="L60" s="84">
+      <c r="L60" s="79">
         <v>672.91634999999997</v>
       </c>
-      <c r="M60" s="84">
+      <c r="M60" s="79">
         <v>212.4999</v>
       </c>
-      <c r="N60" s="95">
+      <c r="N60" s="90">
         <v>426.14</v>
       </c>
-      <c r="O60" s="101">
+      <c r="O60" s="96">
         <v>590.27750000000003</v>
       </c>
-      <c r="P60" s="101">
+      <c r="P60" s="96">
         <v>200.69435000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>42309</v>
       </c>
@@ -2582,44 +2579,44 @@
       <c r="D61" s="22">
         <v>12</v>
       </c>
-      <c r="E61" s="38">
+      <c r="E61" s="33">
         <v>2434.7874999999999</v>
       </c>
-      <c r="F61" s="45">
+      <c r="F61" s="40">
         <v>4720</v>
       </c>
-      <c r="G61" s="45">
+      <c r="G61" s="40">
         <v>640</v>
       </c>
-      <c r="H61" s="56">
+      <c r="H61" s="51">
         <v>225.01</v>
       </c>
-      <c r="I61" s="63">
+      <c r="I61" s="58">
         <v>1019</v>
       </c>
-      <c r="J61" s="63">
+      <c r="J61" s="58">
         <v>50</v>
       </c>
-      <c r="K61" s="78">
+      <c r="K61" s="73">
         <v>599.72</v>
       </c>
-      <c r="L61" s="84">
+      <c r="L61" s="79">
         <v>920.8329</v>
       </c>
-      <c r="M61" s="84">
+      <c r="M61" s="79">
         <v>295.13875000000002</v>
       </c>
-      <c r="N61" s="95">
+      <c r="N61" s="90">
         <v>479.69</v>
       </c>
-      <c r="O61" s="101">
+      <c r="O61" s="96">
         <v>590.27750000000003</v>
       </c>
-      <c r="P61" s="101">
+      <c r="P61" s="96">
         <v>165.27770000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>42339</v>
       </c>
@@ -2632,44 +2629,44 @@
       <c r="D62" s="22">
         <v>8</v>
       </c>
-      <c r="E62" s="38">
+      <c r="E62" s="33">
         <v>2395.7199999999998</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="40">
         <v>4850</v>
       </c>
-      <c r="G62" s="45">
+      <c r="G62" s="40">
         <v>800</v>
       </c>
-      <c r="H62" s="56">
+      <c r="H62" s="51">
         <v>309.01</v>
       </c>
-      <c r="I62" s="63">
+      <c r="I62" s="58">
         <v>999</v>
       </c>
-      <c r="J62" s="64">
+      <c r="J62" s="59">
         <v>16.100000000000001</v>
       </c>
-      <c r="K62" s="78">
+      <c r="K62" s="73">
         <v>523.25</v>
       </c>
-      <c r="L62" s="84">
+      <c r="L62" s="79">
         <v>944.55</v>
       </c>
-      <c r="M62" s="84">
+      <c r="M62" s="79">
         <v>236.11</v>
       </c>
-      <c r="N62" s="95">
+      <c r="N62" s="90">
         <v>483.64</v>
       </c>
-      <c r="O62" s="101">
+      <c r="O62" s="96">
         <v>920</v>
       </c>
-      <c r="P62" s="101">
+      <c r="P62" s="96">
         <v>259.85000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>42370</v>
       </c>
@@ -2682,44 +2679,44 @@
       <c r="D63" s="23">
         <v>10</v>
       </c>
-      <c r="E63" s="39">
+      <c r="E63" s="34">
         <v>2526.4324324324325</v>
       </c>
-      <c r="F63" s="46">
+      <c r="F63" s="41">
         <v>2370</v>
       </c>
-      <c r="G63" s="46">
+      <c r="G63" s="41">
         <v>1010</v>
       </c>
-      <c r="H63" s="57">
+      <c r="H63" s="52">
         <v>238.49</v>
       </c>
-      <c r="I63" s="65">
+      <c r="I63" s="60">
         <v>1101</v>
       </c>
-      <c r="J63" s="65">
+      <c r="J63" s="60">
         <v>63</v>
       </c>
-      <c r="K63" s="79">
+      <c r="K63" s="74">
         <v>498.57321142472944</v>
       </c>
-      <c r="L63" s="85">
+      <c r="L63" s="80">
         <v>934.88150449998454</v>
       </c>
-      <c r="M63" s="85">
+      <c r="M63" s="80">
         <v>18.416657999972514</v>
       </c>
-      <c r="N63" s="96">
+      <c r="N63" s="91">
         <v>391.68</v>
       </c>
-      <c r="O63" s="102">
+      <c r="O63" s="97">
         <v>909.49957200001029</v>
       </c>
-      <c r="P63" s="102">
+      <c r="P63" s="97">
         <v>302.93041299995537</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>42401</v>
       </c>
@@ -2732,44 +2729,44 @@
       <c r="D64" s="23">
         <v>19</v>
       </c>
-      <c r="E64" s="39">
+      <c r="E64" s="34">
         <v>2217.0927835051548</v>
       </c>
-      <c r="F64" s="46">
+      <c r="F64" s="41">
         <v>4980</v>
       </c>
-      <c r="G64" s="46">
+      <c r="G64" s="41">
         <v>930</v>
       </c>
-      <c r="H64" s="57">
+      <c r="H64" s="52">
         <v>210.55834929757341</v>
       </c>
-      <c r="I64" s="65">
+      <c r="I64" s="60">
         <v>1036</v>
       </c>
-      <c r="J64" s="65">
+      <c r="J64" s="60">
         <v>53</v>
       </c>
-      <c r="K64" s="79">
+      <c r="K64" s="74">
         <v>629.54999999999995</v>
       </c>
-      <c r="L64" s="85">
+      <c r="L64" s="80">
         <v>925.4370644999932</v>
       </c>
-      <c r="M64" s="85">
+      <c r="M64" s="80">
         <v>1.5347215000120256</v>
       </c>
-      <c r="N64" s="96">
+      <c r="N64" s="91">
         <v>394.26</v>
       </c>
-      <c r="O64" s="102">
+      <c r="O64" s="97">
         <v>765.94408400001203</v>
       </c>
-      <c r="P64" s="102">
+      <c r="P64" s="97">
         <v>160.55548000002577</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>42430</v>
       </c>
@@ -2782,44 +2779,44 @@
       <c r="D65" s="23">
         <v>9</v>
       </c>
-      <c r="E65" s="39">
+      <c r="E65" s="34">
         <v>2251.5840220385676</v>
       </c>
-      <c r="F65" s="46">
+      <c r="F65" s="41">
         <v>3770</v>
       </c>
-      <c r="G65" s="46">
+      <c r="G65" s="41">
         <v>890</v>
       </c>
-      <c r="H65" s="57">
+      <c r="H65" s="52">
         <v>205.63</v>
       </c>
-      <c r="I65" s="65">
+      <c r="I65" s="60">
         <v>944</v>
       </c>
-      <c r="J65" s="65">
+      <c r="J65" s="60">
         <v>67</v>
       </c>
-      <c r="K65" s="79">
+      <c r="K65" s="74">
         <v>777.19627755376416</v>
       </c>
-      <c r="L65" s="85">
+      <c r="L65" s="80">
         <v>1033.4578470000104</v>
       </c>
-      <c r="M65" s="85">
+      <c r="M65" s="80">
         <v>345.31233750000001</v>
       </c>
-      <c r="N65" s="96">
+      <c r="N65" s="91">
         <v>507.29779516129133</v>
       </c>
-      <c r="O65" s="102">
+      <c r="O65" s="97">
         <v>775.86074599997085</v>
       </c>
-      <c r="P65" s="102">
+      <c r="P65" s="97">
         <v>218.04850849992786</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>42461</v>
       </c>
@@ -2832,44 +2829,44 @@
       <c r="D66" s="23">
         <v>15</v>
       </c>
-      <c r="E66" s="39">
+      <c r="E66" s="34">
         <v>2047.8279266572638</v>
       </c>
-      <c r="F66" s="46">
+      <c r="F66" s="41">
         <v>8100</v>
       </c>
-      <c r="G66" s="46">
+      <c r="G66" s="41">
         <v>500</v>
       </c>
-      <c r="H66" s="57">
+      <c r="H66" s="52">
         <v>122.1</v>
       </c>
-      <c r="I66" s="65">
+      <c r="I66" s="60">
         <v>654</v>
       </c>
-      <c r="J66" s="65">
+      <c r="J66" s="60">
         <v>48</v>
       </c>
-      <c r="K66" s="79">
+      <c r="K66" s="74">
         <v>706.72174825268701</v>
       </c>
-      <c r="L66" s="85">
+      <c r="L66" s="80">
         <v>925.31900900001199</v>
       </c>
-      <c r="M66" s="85">
+      <c r="M66" s="80">
         <v>555.21501650002926</v>
       </c>
-      <c r="N66" s="96">
+      <c r="N66" s="91">
         <v>447.40625067204377</v>
       </c>
-      <c r="O66" s="102">
+      <c r="O66" s="97">
         <v>562.65251299999829</v>
       </c>
-      <c r="P66" s="102">
+      <c r="P66" s="97">
         <v>191.95824300002405</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>42491</v>
       </c>
@@ -2882,44 +2879,44 @@
       <c r="D67" s="23">
         <v>29</v>
       </c>
-      <c r="E67" s="39">
+      <c r="E67" s="34">
         <v>2089.3773584905662</v>
       </c>
-      <c r="F67" s="46">
+      <c r="F67" s="41">
         <v>4560</v>
       </c>
-      <c r="G67" s="46">
+      <c r="G67" s="41">
         <v>900</v>
       </c>
-      <c r="H67" s="57">
+      <c r="H67" s="52">
         <v>158.95459976105138</v>
       </c>
-      <c r="I67" s="65">
+      <c r="I67" s="60">
         <v>557</v>
       </c>
-      <c r="J67" s="65">
+      <c r="J67" s="60">
         <v>51</v>
       </c>
-      <c r="K67" s="79">
+      <c r="K67" s="74">
         <v>648.46392110214958</v>
       </c>
-      <c r="L67" s="85">
+      <c r="L67" s="80">
         <v>968.29121100000521</v>
       </c>
-      <c r="M67" s="85">
+      <c r="M67" s="80">
         <v>308.9512434999794</v>
       </c>
-      <c r="N67" s="96">
+      <c r="N67" s="91">
         <v>494.17474166666517</v>
       </c>
-      <c r="O67" s="102">
+      <c r="O67" s="97">
         <v>960.85371449999309</v>
       </c>
-      <c r="P67" s="102">
+      <c r="P67" s="97">
         <v>28.569430999979385</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>42522</v>
       </c>
@@ -2932,44 +2929,44 @@
       <c r="D68" s="23">
         <v>11</v>
       </c>
-      <c r="E68" s="39">
+      <c r="E68" s="34">
         <v>2028.6694444444445</v>
       </c>
-      <c r="F68" s="46">
+      <c r="F68" s="41">
         <v>4000</v>
       </c>
-      <c r="G68" s="46">
+      <c r="G68" s="41">
         <v>650</v>
       </c>
-      <c r="H68" s="57">
+      <c r="H68" s="52">
         <v>146.80000000000001</v>
       </c>
-      <c r="I68" s="65">
+      <c r="I68" s="60">
         <v>589</v>
       </c>
-      <c r="J68" s="65">
+      <c r="J68" s="60">
         <v>11</v>
       </c>
-      <c r="K68" s="79">
+      <c r="K68" s="74">
         <v>450.23955067204469</v>
       </c>
-      <c r="L68" s="85">
+      <c r="L68" s="80">
         <v>664.06218750004291</v>
       </c>
-      <c r="M68" s="85">
+      <c r="M68" s="80">
         <v>249.56932699999314</v>
       </c>
-      <c r="N68" s="96">
+      <c r="N68" s="91">
         <v>538.42982137096874</v>
       </c>
-      <c r="O68" s="102">
+      <c r="O68" s="97">
         <v>868.5343135000395</v>
       </c>
-      <c r="P68" s="102">
+      <c r="P68" s="97">
         <v>158.66659200002749</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>42552</v>
       </c>
@@ -2982,44 +2979,44 @@
       <c r="D69" s="23">
         <v>4</v>
       </c>
-      <c r="E69" s="39">
+      <c r="E69" s="34">
         <v>1634.8188010899182</v>
       </c>
-      <c r="F69" s="46">
+      <c r="F69" s="41">
         <v>3140</v>
       </c>
-      <c r="G69" s="46">
+      <c r="G69" s="41">
         <v>430</v>
       </c>
-      <c r="H69" s="57">
+      <c r="H69" s="52">
         <v>112.57952508960574</v>
       </c>
-      <c r="I69" s="65">
+      <c r="I69" s="60">
         <v>512</v>
       </c>
-      <c r="J69" s="65">
+      <c r="J69" s="60">
         <v>48</v>
       </c>
-      <c r="K69" s="79">
+      <c r="K69" s="74">
         <v>418.56676021505336</v>
       </c>
-      <c r="L69" s="85">
+      <c r="L69" s="80">
         <v>620.38165249999145</v>
       </c>
-      <c r="M69" s="85">
+      <c r="M69" s="80">
         <v>264.9165420000275</v>
       </c>
-      <c r="N69" s="96">
+      <c r="N69" s="91">
         <v>443.9522142473113</v>
       </c>
-      <c r="O69" s="102">
+      <c r="O69" s="97">
         <v>633.13164650005501</v>
       </c>
-      <c r="P69" s="102">
+      <c r="P69" s="97">
         <v>190.65963249997424</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>42583</v>
       </c>
@@ -3032,44 +3029,44 @@
       <c r="D70" s="23">
         <v>10</v>
       </c>
-      <c r="E70" s="39">
+      <c r="E70" s="34">
         <v>1787.9815078236131</v>
       </c>
-      <c r="F70" s="46">
+      <c r="F70" s="41">
         <v>4410</v>
       </c>
-      <c r="G70" s="46">
+      <c r="G70" s="41">
         <v>590</v>
       </c>
-      <c r="H70" s="57">
+      <c r="H70" s="52">
         <v>121.57</v>
       </c>
-      <c r="I70" s="65">
+      <c r="I70" s="60">
         <v>997</v>
       </c>
-      <c r="J70" s="65">
+      <c r="J70" s="60">
         <v>29</v>
       </c>
-      <c r="K70" s="79">
+      <c r="K70" s="74">
         <v>415.10129919354989</v>
       </c>
-      <c r="L70" s="85">
+      <c r="L70" s="80">
         <v>717.06910699993307</v>
       </c>
-      <c r="M70" s="85">
+      <c r="M70" s="80">
         <v>213.32628850003951</v>
       </c>
-      <c r="N70" s="96">
+      <c r="N70" s="91">
         <v>538.01091948924739</v>
       </c>
-      <c r="O70" s="102">
+      <c r="O70" s="97">
         <v>811.98572900002921</v>
       </c>
-      <c r="P70" s="102">
+      <c r="P70" s="97">
         <v>153.94437199996736</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>42614</v>
       </c>
@@ -3082,44 +3079,44 @@
       <c r="D71" s="23">
         <v>3</v>
       </c>
-      <c r="E71" s="39">
+      <c r="E71" s="34">
         <v>1751.43</v>
       </c>
-      <c r="F71" s="46">
+      <c r="F71" s="41">
         <v>3260</v>
       </c>
-      <c r="G71" s="46">
+      <c r="G71" s="41">
         <v>500</v>
       </c>
-      <c r="H71" s="57">
+      <c r="H71" s="52">
         <v>140.25312934631432</v>
       </c>
-      <c r="I71" s="65">
+      <c r="I71" s="60">
         <v>972</v>
       </c>
-      <c r="J71" s="65">
+      <c r="J71" s="60">
         <v>20</v>
       </c>
-      <c r="K71" s="79">
+      <c r="K71" s="74">
         <v>568.04</v>
       </c>
-      <c r="L71" s="85">
+      <c r="L71" s="80">
         <v>640.80999999999995</v>
       </c>
-      <c r="M71" s="85">
+      <c r="M71" s="80">
         <v>86.3</v>
       </c>
-      <c r="N71" s="96">
+      <c r="N71" s="91">
         <v>607.51</v>
       </c>
-      <c r="O71" s="102">
+      <c r="O71" s="97">
         <v>979.15</v>
       </c>
-      <c r="P71" s="102">
+      <c r="P71" s="97">
         <v>164.22</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>42644</v>
       </c>
@@ -3132,44 +3129,44 @@
       <c r="D72" s="23">
         <v>3</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E72" s="34">
         <v>1983.31</v>
       </c>
-      <c r="F72" s="46">
+      <c r="F72" s="41">
         <v>3400</v>
       </c>
-      <c r="G72" s="46">
+      <c r="G72" s="41">
         <v>600</v>
       </c>
-      <c r="H72" s="57">
+      <c r="H72" s="52">
         <v>151.38</v>
       </c>
-      <c r="I72" s="65">
+      <c r="I72" s="60">
         <v>529</v>
       </c>
-      <c r="J72" s="65">
+      <c r="J72" s="60">
         <v>28</v>
       </c>
-      <c r="K72" s="79">
+      <c r="K72" s="74">
         <v>469.25</v>
       </c>
-      <c r="L72" s="85">
+      <c r="L72" s="80">
         <v>792.03</v>
       </c>
-      <c r="M72" s="85">
+      <c r="M72" s="80">
         <v>289</v>
       </c>
-      <c r="N72" s="96">
+      <c r="N72" s="91">
         <v>812.04</v>
       </c>
-      <c r="O72" s="102">
+      <c r="O72" s="97">
         <v>890.61</v>
       </c>
-      <c r="P72" s="102">
+      <c r="P72" s="97">
         <v>222.77</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>42675</v>
       </c>
@@ -3182,44 +3179,44 @@
       <c r="D73" s="23">
         <v>5</v>
       </c>
-      <c r="E73" s="39">
+      <c r="E73" s="34">
         <v>2075</v>
       </c>
-      <c r="F73" s="46">
+      <c r="F73" s="41">
         <v>3050</v>
       </c>
-      <c r="G73" s="46">
+      <c r="G73" s="41">
         <v>600</v>
       </c>
-      <c r="H73" s="57">
+      <c r="H73" s="52">
         <v>189.12</v>
       </c>
-      <c r="I73" s="65">
+      <c r="I73" s="60">
         <v>1000</v>
       </c>
-      <c r="J73" s="65">
+      <c r="J73" s="60">
         <v>38</v>
       </c>
-      <c r="K73" s="79">
+      <c r="K73" s="74">
         <v>463.9</v>
       </c>
-      <c r="L73" s="85">
+      <c r="L73" s="80">
         <v>798.88</v>
       </c>
-      <c r="M73" s="85">
+      <c r="M73" s="80">
         <v>353.34</v>
       </c>
-      <c r="N73" s="96">
+      <c r="N73" s="91">
         <v>795.78</v>
       </c>
-      <c r="O73" s="102">
+      <c r="O73" s="97">
         <v>958.85</v>
       </c>
-      <c r="P73" s="102">
+      <c r="P73" s="97">
         <v>543.05999999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>42705</v>
       </c>
@@ -3232,44 +3229,44 @@
       <c r="D74" s="23">
         <v>6</v>
       </c>
-      <c r="E74" s="39">
+      <c r="E74" s="34">
         <v>2189.59</v>
       </c>
-      <c r="F74" s="46">
+      <c r="F74" s="41">
         <v>4700</v>
       </c>
-      <c r="G74" s="46">
+      <c r="G74" s="41">
         <v>600</v>
       </c>
-      <c r="H74" s="57">
+      <c r="H74" s="52">
         <v>146.52000000000001</v>
       </c>
-      <c r="I74" s="65">
+      <c r="I74" s="60">
         <v>1034</v>
       </c>
-      <c r="J74" s="65">
+      <c r="J74" s="60">
         <v>26</v>
       </c>
-      <c r="K74" s="79">
+      <c r="K74" s="74">
         <v>534.67741935483866</v>
       </c>
-      <c r="L74" s="85">
+      <c r="L74" s="80">
         <v>907.73</v>
       </c>
-      <c r="M74" s="85">
+      <c r="M74" s="80">
         <v>169.17</v>
       </c>
-      <c r="N74" s="96">
+      <c r="N74" s="91">
         <v>589.51612903225816</v>
       </c>
-      <c r="O74" s="102">
+      <c r="O74" s="97">
         <v>850.94</v>
       </c>
-      <c r="P74" s="102">
+      <c r="P74" s="97">
         <v>398.91</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>42736</v>
       </c>
@@ -3282,44 +3279,44 @@
       <c r="D75" s="24">
         <v>78</v>
       </c>
-      <c r="E75" s="40">
+      <c r="E75" s="35">
         <v>2389.09</v>
       </c>
-      <c r="F75" s="47">
+      <c r="F75" s="42">
         <v>5290</v>
       </c>
-      <c r="G75" s="47">
+      <c r="G75" s="42">
         <v>900</v>
       </c>
-      <c r="H75" s="58">
+      <c r="H75" s="53">
         <v>188.96</v>
       </c>
-      <c r="I75" s="66">
+      <c r="I75" s="61">
         <v>1026</v>
       </c>
-      <c r="J75" s="66">
+      <c r="J75" s="61">
         <v>27</v>
       </c>
-      <c r="K75" s="80">
+      <c r="K75" s="75">
         <v>710.62</v>
       </c>
-      <c r="L75" s="86">
+      <c r="L75" s="81">
         <v>983.28</v>
       </c>
-      <c r="M75" s="86">
+      <c r="M75" s="81">
         <v>566.42999999999995</v>
       </c>
-      <c r="N75" s="97">
+      <c r="N75" s="92">
         <v>573.52</v>
       </c>
-      <c r="O75" s="103">
+      <c r="O75" s="98">
         <v>757.68</v>
       </c>
-      <c r="P75" s="103">
+      <c r="P75" s="98">
         <v>476</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>42767</v>
       </c>
@@ -3332,44 +3329,44 @@
       <c r="D76" s="24">
         <v>115</v>
       </c>
-      <c r="E76" s="40">
+      <c r="E76" s="35">
         <v>2067.85</v>
       </c>
-      <c r="F76" s="47">
+      <c r="F76" s="42">
         <v>3830</v>
       </c>
-      <c r="G76" s="47">
+      <c r="G76" s="42">
         <v>800</v>
       </c>
-      <c r="H76" s="58">
+      <c r="H76" s="53">
         <v>120.53</v>
       </c>
-      <c r="I76" s="66">
+      <c r="I76" s="61">
         <v>1231</v>
       </c>
-      <c r="J76" s="66">
+      <c r="J76" s="61">
         <v>11</v>
       </c>
-      <c r="K76" s="80">
+      <c r="K76" s="75">
         <v>707.91</v>
       </c>
-      <c r="L76" s="86">
+      <c r="L76" s="81">
         <v>956.84</v>
       </c>
-      <c r="M76" s="86">
+      <c r="M76" s="81">
         <v>453.69</v>
       </c>
-      <c r="N76" s="97">
+      <c r="N76" s="92">
         <v>530.83000000000004</v>
       </c>
-      <c r="O76" s="103">
+      <c r="O76" s="98">
         <v>713.53</v>
       </c>
-      <c r="P76" s="103">
+      <c r="P76" s="98">
         <v>375.77</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>42795</v>
       </c>
@@ -3382,44 +3379,44 @@
       <c r="D77" s="24">
         <v>111</v>
       </c>
-      <c r="E77" s="40">
+      <c r="E77" s="35">
         <v>2439.15</v>
       </c>
-      <c r="F77" s="47">
+      <c r="F77" s="42">
         <v>4750</v>
       </c>
-      <c r="G77" s="47">
+      <c r="G77" s="42">
         <v>630</v>
       </c>
-      <c r="H77" s="58">
+      <c r="H77" s="53">
         <v>251.19</v>
       </c>
-      <c r="I77" s="66">
+      <c r="I77" s="61">
         <v>1068</v>
       </c>
-      <c r="J77" s="66">
+      <c r="J77" s="61">
         <v>56</v>
       </c>
-      <c r="K77" s="80">
+      <c r="K77" s="75">
         <v>502.31</v>
       </c>
-      <c r="L77" s="86">
+      <c r="L77" s="81">
         <v>903.24</v>
       </c>
-      <c r="M77" s="86">
+      <c r="M77" s="81">
         <v>485.21</v>
       </c>
-      <c r="N77" s="97">
+      <c r="N77" s="92">
         <v>537.72</v>
       </c>
-      <c r="O77" s="103">
+      <c r="O77" s="98">
         <v>921.07</v>
       </c>
-      <c r="P77" s="103">
+      <c r="P77" s="98">
         <v>6.02</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>42826</v>
       </c>
@@ -3432,44 +3429,44 @@
       <c r="D78" s="24">
         <v>141</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="35">
         <v>2388.4</v>
       </c>
-      <c r="F78" s="47">
+      <c r="F78" s="42">
         <v>4870</v>
       </c>
-      <c r="G78" s="47">
+      <c r="G78" s="42">
         <v>950</v>
       </c>
-      <c r="H78" s="58">
+      <c r="H78" s="53">
         <v>149.99</v>
       </c>
-      <c r="I78" s="66">
+      <c r="I78" s="61">
         <v>1030</v>
       </c>
-      <c r="J78" s="66">
+      <c r="J78" s="61">
         <v>54</v>
       </c>
-      <c r="K78" s="80">
+      <c r="K78" s="75">
         <v>446.64</v>
       </c>
-      <c r="L78" s="86">
+      <c r="L78" s="81">
         <v>839.14</v>
       </c>
-      <c r="M78" s="86">
+      <c r="M78" s="81">
         <v>353.69</v>
       </c>
-      <c r="N78" s="97">
+      <c r="N78" s="92">
         <v>576.11</v>
       </c>
-      <c r="O78" s="103">
+      <c r="O78" s="98">
         <v>827.21</v>
       </c>
-      <c r="P78" s="103">
+      <c r="P78" s="98">
         <v>517.32000000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>42856</v>
       </c>
@@ -3482,44 +3479,44 @@
       <c r="D79" s="24">
         <v>189</v>
       </c>
-      <c r="E79" s="40">
+      <c r="E79" s="35">
         <v>1967.07</v>
       </c>
-      <c r="F79" s="47">
+      <c r="F79" s="42">
         <v>3960</v>
       </c>
-      <c r="G79" s="47">
+      <c r="G79" s="42">
         <v>500</v>
       </c>
-      <c r="H79" s="58">
+      <c r="H79" s="53">
         <v>105.78</v>
       </c>
-      <c r="I79" s="66">
+      <c r="I79" s="61">
         <v>982</v>
       </c>
-      <c r="J79" s="66">
+      <c r="J79" s="61">
         <v>10</v>
       </c>
-      <c r="K79" s="80">
+      <c r="K79" s="75">
         <v>480.22</v>
       </c>
-      <c r="L79" s="86">
+      <c r="L79" s="81">
         <v>765.94</v>
       </c>
-      <c r="M79" s="86">
+      <c r="M79" s="81">
         <v>242.72</v>
       </c>
-      <c r="N79" s="97">
+      <c r="N79" s="92">
         <v>509.92</v>
       </c>
-      <c r="O79" s="103">
+      <c r="O79" s="98">
         <v>645.53</v>
       </c>
-      <c r="P79" s="103">
+      <c r="P79" s="98">
         <v>401.62</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>42887</v>
       </c>
@@ -3532,44 +3529,44 @@
       <c r="D80" s="24">
         <v>60</v>
       </c>
-      <c r="E80" s="40">
+      <c r="E80" s="35">
         <v>2001.8</v>
       </c>
-      <c r="F80" s="47">
+      <c r="F80" s="42">
         <v>3560</v>
       </c>
-      <c r="G80" s="47">
+      <c r="G80" s="42">
         <v>550</v>
       </c>
-      <c r="H80" s="58">
+      <c r="H80" s="53">
         <v>118.91</v>
       </c>
-      <c r="I80" s="66">
+      <c r="I80" s="61">
         <v>1004</v>
       </c>
-      <c r="J80" s="67">
+      <c r="J80" s="62">
         <v>0.21</v>
       </c>
-      <c r="K80" s="80">
+      <c r="K80" s="75">
         <v>440.74</v>
       </c>
-      <c r="L80" s="86">
+      <c r="L80" s="81">
         <v>688.74</v>
       </c>
-      <c r="M80" s="86">
+      <c r="M80" s="81">
         <v>195.85</v>
       </c>
-      <c r="N80" s="97">
+      <c r="N80" s="92">
         <v>482.85</v>
       </c>
-      <c r="O80" s="103">
+      <c r="O80" s="98">
         <v>819.42</v>
       </c>
-      <c r="P80" s="103">
+      <c r="P80" s="98">
         <v>282.27</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>42917</v>
       </c>
@@ -3582,44 +3579,44 @@
       <c r="D81" s="24">
         <v>109</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="35">
         <v>1846.02</v>
       </c>
-      <c r="F81" s="47">
+      <c r="F81" s="42">
         <v>3480</v>
       </c>
-      <c r="G81" s="47">
+      <c r="G81" s="42">
         <v>600</v>
       </c>
-      <c r="H81" s="58">
+      <c r="H81" s="53">
         <v>93.73</v>
       </c>
-      <c r="I81" s="66">
+      <c r="I81" s="61">
         <v>985</v>
       </c>
-      <c r="J81" s="66">
+      <c r="J81" s="61">
         <v>12</v>
       </c>
-      <c r="K81" s="80">
+      <c r="K81" s="75">
         <v>357.21</v>
       </c>
-      <c r="L81" s="86">
+      <c r="L81" s="81">
         <v>683.42</v>
       </c>
-      <c r="M81" s="86">
+      <c r="M81" s="81">
         <v>280.97000000000003</v>
       </c>
-      <c r="N81" s="97">
+      <c r="N81" s="92">
         <v>517.54</v>
       </c>
-      <c r="O81" s="103">
+      <c r="O81" s="98">
         <v>653.79</v>
       </c>
-      <c r="P81" s="103">
+      <c r="P81" s="98">
         <v>524.87</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>42948</v>
       </c>
@@ -3632,44 +3629,44 @@
       <c r="D82" s="24">
         <v>256</v>
       </c>
-      <c r="E82" s="40">
+      <c r="E82" s="35">
         <v>1828.58</v>
       </c>
-      <c r="F82" s="47">
+      <c r="F82" s="42">
         <v>3450</v>
       </c>
-      <c r="G82" s="47">
+      <c r="G82" s="42">
         <v>310</v>
       </c>
-      <c r="H82" s="58">
+      <c r="H82" s="53">
         <v>189.73</v>
       </c>
-      <c r="I82" s="66">
+      <c r="I82" s="61">
         <v>1060</v>
       </c>
-      <c r="J82" s="66">
+      <c r="J82" s="61">
         <v>32</v>
       </c>
-      <c r="K82" s="80">
+      <c r="K82" s="75">
         <v>501.93</v>
       </c>
-      <c r="L82" s="86">
+      <c r="L82" s="81">
         <v>711.24</v>
       </c>
-      <c r="M82" s="86">
+      <c r="M82" s="81">
         <v>212.5</v>
       </c>
-      <c r="N82" s="97">
+      <c r="N82" s="92">
         <v>512.21</v>
       </c>
-      <c r="O82" s="103">
+      <c r="O82" s="98">
         <v>648.24</v>
       </c>
-      <c r="P82" s="103">
+      <c r="P82" s="98">
         <v>403.87</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>42979</v>
       </c>
@@ -3682,44 +3679,44 @@
       <c r="D83" s="24">
         <v>167</v>
       </c>
-      <c r="E83" s="40">
+      <c r="E83" s="35">
         <v>1797.58</v>
       </c>
-      <c r="F83" s="47">
+      <c r="F83" s="42">
         <v>3360</v>
       </c>
-      <c r="G83" s="47">
+      <c r="G83" s="42">
         <v>600</v>
       </c>
-      <c r="H83" s="58">
+      <c r="H83" s="53">
         <v>331.36</v>
       </c>
-      <c r="I83" s="66">
+      <c r="I83" s="61">
         <v>1132</v>
       </c>
-      <c r="J83" s="66">
+      <c r="J83" s="61">
         <v>3</v>
       </c>
-      <c r="K83" s="80">
+      <c r="K83" s="75">
         <v>437.2</v>
       </c>
-      <c r="L83" s="86">
+      <c r="L83" s="81">
         <v>747.76</v>
       </c>
-      <c r="M83" s="86">
+      <c r="M83" s="81">
         <v>22.19</v>
       </c>
-      <c r="N83" s="97">
+      <c r="N83" s="92">
         <v>493.08</v>
       </c>
-      <c r="O83" s="103">
+      <c r="O83" s="98">
         <v>677.17</v>
       </c>
-      <c r="P83" s="103">
+      <c r="P83" s="98">
         <v>174.37</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>43009</v>
       </c>
@@ -3732,44 +3729,44 @@
       <c r="D84" s="24">
         <v>38</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E84" s="35">
         <v>1889.74</v>
       </c>
-      <c r="F84" s="47">
+      <c r="F84" s="42">
         <v>3380</v>
       </c>
-      <c r="G84" s="47">
+      <c r="G84" s="42">
         <v>570</v>
       </c>
-      <c r="H84" s="58">
+      <c r="H84" s="53">
         <v>461.94</v>
       </c>
-      <c r="I84" s="66">
+      <c r="I84" s="61">
         <v>1351</v>
       </c>
-      <c r="J84" s="66">
+      <c r="J84" s="61">
         <v>141</v>
       </c>
-      <c r="K84" s="80">
+      <c r="K84" s="75">
         <v>447.47</v>
       </c>
-      <c r="L84" s="86">
+      <c r="L84" s="81">
         <v>920.01</v>
       </c>
-      <c r="M84" s="86">
+      <c r="M84" s="81">
         <v>97.4</v>
       </c>
-      <c r="N84" s="97">
+      <c r="N84" s="92">
         <v>517.54</v>
       </c>
-      <c r="O84" s="103">
+      <c r="O84" s="98">
         <v>706.8</v>
       </c>
-      <c r="P84" s="103">
+      <c r="P84" s="98">
         <v>38.96</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>43040</v>
       </c>
@@ -3782,44 +3779,44 @@
       <c r="D85" s="24">
         <v>59</v>
       </c>
-      <c r="E85" s="40">
+      <c r="E85" s="35">
         <v>2169.96</v>
       </c>
-      <c r="F85" s="47">
+      <c r="F85" s="42">
         <v>4720</v>
       </c>
-      <c r="G85" s="47">
+      <c r="G85" s="42">
         <v>570</v>
       </c>
-      <c r="H85" s="58">
+      <c r="H85" s="53">
         <v>408.15</v>
       </c>
-      <c r="I85" s="66">
+      <c r="I85" s="61">
         <v>1335</v>
       </c>
-      <c r="J85" s="66">
+      <c r="J85" s="61">
         <v>46</v>
       </c>
-      <c r="K85" s="80">
+      <c r="K85" s="75">
         <v>565.49</v>
       </c>
-      <c r="L85" s="86">
+      <c r="L85" s="81">
         <v>920.83</v>
       </c>
-      <c r="M85" s="86">
+      <c r="M85" s="81">
         <v>377.87</v>
       </c>
-      <c r="N85" s="97">
+      <c r="N85" s="92">
         <v>369.91</v>
       </c>
-      <c r="O85" s="103">
+      <c r="O85" s="98">
         <v>826.39</v>
       </c>
-      <c r="P85" s="103">
+      <c r="P85" s="98">
         <v>20.07</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>43070</v>
       </c>
@@ -3832,44 +3829,44 @@
       <c r="D86" s="24">
         <v>176</v>
       </c>
-      <c r="E86" s="40">
+      <c r="E86" s="35">
         <v>2066.98</v>
       </c>
-      <c r="F86" s="47">
+      <c r="F86" s="42">
         <v>3890</v>
       </c>
-      <c r="G86" s="47">
+      <c r="G86" s="42">
         <v>560</v>
       </c>
-      <c r="H86" s="58">
+      <c r="H86" s="53">
         <v>134.97999999999999</v>
       </c>
-      <c r="I86" s="66">
+      <c r="I86" s="61">
         <v>1040</v>
       </c>
-      <c r="J86" s="66">
+      <c r="J86" s="61">
         <v>21</v>
       </c>
-      <c r="K86" s="80">
+      <c r="K86" s="75">
         <v>498.5</v>
       </c>
-      <c r="L86" s="86">
+      <c r="L86" s="81">
         <v>949.76</v>
       </c>
-      <c r="M86" s="86">
+      <c r="M86" s="81">
         <v>306.94</v>
       </c>
-      <c r="N86" s="97">
+      <c r="N86" s="92">
         <v>499.26</v>
       </c>
-      <c r="O86" s="103">
+      <c r="O86" s="98">
         <v>851.42</v>
       </c>
-      <c r="P86" s="103">
+      <c r="P86" s="98">
         <v>47.22</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>43101</v>
       </c>
@@ -3882,44 +3879,44 @@
       <c r="D87" s="25">
         <v>284</v>
       </c>
-      <c r="E87" s="41">
+      <c r="E87" s="36">
         <v>2142.7800000000002</v>
       </c>
-      <c r="F87" s="48">
+      <c r="F87" s="43">
         <v>4600</v>
       </c>
-      <c r="G87" s="48">
+      <c r="G87" s="43">
         <v>560</v>
       </c>
-      <c r="H87" s="59">
+      <c r="H87" s="54">
         <v>320.23</v>
       </c>
-      <c r="I87" s="68">
+      <c r="I87" s="63">
         <v>1301</v>
       </c>
-      <c r="J87" s="68">
+      <c r="J87" s="63">
         <v>60</v>
       </c>
-      <c r="K87" s="81">
+      <c r="K87" s="76">
         <v>684.72</v>
       </c>
-      <c r="L87" s="87">
+      <c r="L87" s="82">
         <v>983.99</v>
       </c>
-      <c r="M87" s="87">
+      <c r="M87" s="82">
         <v>331.97</v>
       </c>
-      <c r="N87" s="98">
+      <c r="N87" s="93">
         <v>663.02</v>
       </c>
-      <c r="O87" s="104">
+      <c r="O87" s="99">
         <v>971.48</v>
       </c>
-      <c r="P87" s="104">
+      <c r="P87" s="99">
         <v>240.01</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>43132</v>
       </c>
@@ -3932,44 +3929,44 @@
       <c r="D88" s="25">
         <v>84</v>
       </c>
-      <c r="E88" s="41">
+      <c r="E88" s="36">
         <v>2292.71</v>
       </c>
-      <c r="F88" s="48">
+      <c r="F88" s="43">
         <v>4830</v>
       </c>
-      <c r="G88" s="48">
+      <c r="G88" s="43">
         <v>1000</v>
       </c>
-      <c r="H88" s="59">
+      <c r="H88" s="54">
         <v>503.15</v>
       </c>
-      <c r="I88" s="68">
+      <c r="I88" s="63">
         <v>1311</v>
       </c>
-      <c r="J88" s="68">
+      <c r="J88" s="63">
         <v>106</v>
       </c>
-      <c r="K88" s="81">
+      <c r="K88" s="76">
         <v>755.55</v>
       </c>
-      <c r="L88" s="87">
+      <c r="L88" s="82">
         <v>866.88</v>
       </c>
-      <c r="M88" s="87">
+      <c r="M88" s="82">
         <v>318.75</v>
       </c>
-      <c r="N88" s="98">
+      <c r="N88" s="93">
         <v>684.99</v>
       </c>
-      <c r="O88" s="104">
+      <c r="O88" s="99">
         <v>865.23</v>
       </c>
-      <c r="P88" s="104">
+      <c r="P88" s="99">
         <v>11.45</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>43160</v>
       </c>
@@ -3982,44 +3979,44 @@
       <c r="D89" s="25">
         <v>309</v>
       </c>
-      <c r="E89" s="41">
+      <c r="E89" s="36">
         <v>2346.9899999999998</v>
       </c>
-      <c r="F89" s="48">
+      <c r="F89" s="43">
         <v>4690</v>
       </c>
-      <c r="G89" s="48">
+      <c r="G89" s="43">
         <v>224</v>
       </c>
-      <c r="H89" s="59">
+      <c r="H89" s="54">
         <v>190.25</v>
       </c>
-      <c r="I89" s="68">
+      <c r="I89" s="63">
         <v>1423</v>
       </c>
-      <c r="J89" s="68">
+      <c r="J89" s="63">
         <v>56</v>
       </c>
-      <c r="K89" s="81">
+      <c r="K89" s="76">
         <v>642.82000000000005</v>
       </c>
-      <c r="L89" s="87">
+      <c r="L89" s="82">
         <v>956.25</v>
       </c>
-      <c r="M89" s="87">
+      <c r="M89" s="82">
         <v>224.31</v>
       </c>
-      <c r="N89" s="98">
+      <c r="N89" s="93">
         <v>524.01</v>
       </c>
-      <c r="O89" s="104">
+      <c r="O89" s="99">
         <v>656.39</v>
       </c>
-      <c r="P89" s="104">
+      <c r="P89" s="99">
         <v>94.44</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>43191</v>
       </c>
@@ -4032,44 +4029,44 @@
       <c r="D90" s="25">
         <v>221</v>
       </c>
-      <c r="E90" s="41">
+      <c r="E90" s="36">
         <v>2067.7600000000002</v>
       </c>
-      <c r="F90" s="48">
+      <c r="F90" s="43">
         <v>4820</v>
       </c>
-      <c r="G90" s="48">
+      <c r="G90" s="43">
         <v>650</v>
       </c>
-      <c r="H90" s="59">
+      <c r="H90" s="54">
         <v>148.38999999999999</v>
       </c>
-      <c r="I90" s="68">
+      <c r="I90" s="63">
         <v>1020</v>
       </c>
-      <c r="J90" s="68">
+      <c r="J90" s="63">
         <v>49</v>
       </c>
-      <c r="K90" s="81">
+      <c r="K90" s="76">
         <v>647.33000000000004</v>
       </c>
-      <c r="L90" s="87">
+      <c r="L90" s="82">
         <v>920.83</v>
       </c>
-      <c r="M90" s="87">
+      <c r="M90" s="82">
         <v>374.35</v>
       </c>
-      <c r="N90" s="98">
+      <c r="N90" s="93">
         <v>476.15</v>
       </c>
-      <c r="O90" s="104">
+      <c r="O90" s="99">
         <v>590.28</v>
       </c>
-      <c r="P90" s="104">
+      <c r="P90" s="99">
         <v>255.12</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>43221</v>
       </c>
@@ -4082,44 +4079,44 @@
       <c r="D91" s="25">
         <v>255</v>
       </c>
-      <c r="E91" s="41">
+      <c r="E91" s="36">
         <v>1909.33</v>
       </c>
-      <c r="F91" s="48">
+      <c r="F91" s="43">
         <v>3380</v>
       </c>
-      <c r="G91" s="48">
+      <c r="G91" s="43">
         <v>570</v>
       </c>
-      <c r="H91" s="59">
+      <c r="H91" s="54">
         <v>117.84</v>
       </c>
-      <c r="I91" s="68">
+      <c r="I91" s="63">
         <v>976</v>
       </c>
-      <c r="J91" s="68">
+      <c r="J91" s="63">
         <v>16</v>
       </c>
-      <c r="K91" s="81">
+      <c r="K91" s="76">
         <v>588.37</v>
       </c>
-      <c r="L91" s="87">
+      <c r="L91" s="82">
         <v>897.22</v>
       </c>
-      <c r="M91" s="87">
+      <c r="M91" s="82">
         <v>354.17</v>
       </c>
-      <c r="N91" s="98">
+      <c r="N91" s="93">
         <v>460.79</v>
       </c>
-      <c r="O91" s="104">
+      <c r="O91" s="99">
         <v>850</v>
       </c>
-      <c r="P91" s="104">
+      <c r="P91" s="99">
         <v>70.53</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>43252</v>
       </c>
@@ -4132,44 +4129,44 @@
       <c r="D92" s="25">
         <v>240</v>
       </c>
-      <c r="E92" s="41">
+      <c r="E92" s="36">
         <v>2053.4899999999998</v>
       </c>
-      <c r="F92" s="48">
+      <c r="F92" s="43">
         <v>3900</v>
       </c>
-      <c r="G92" s="48">
+      <c r="G92" s="43">
         <v>600</v>
       </c>
-      <c r="H92" s="59">
+      <c r="H92" s="54">
         <v>102.13</v>
       </c>
-      <c r="I92" s="68">
+      <c r="I92" s="63">
         <v>966</v>
       </c>
-      <c r="J92" s="68">
+      <c r="J92" s="63">
         <v>32</v>
       </c>
-      <c r="K92" s="81">
+      <c r="K92" s="76">
         <v>515.12</v>
       </c>
-      <c r="L92" s="87">
+      <c r="L92" s="82">
         <v>831.58</v>
       </c>
-      <c r="M92" s="87">
+      <c r="M92" s="82">
         <v>259.72000000000003</v>
       </c>
-      <c r="N92" s="98">
+      <c r="N92" s="93">
         <v>453.73</v>
       </c>
-      <c r="O92" s="104">
+      <c r="O92" s="99">
         <v>687.79</v>
       </c>
-      <c r="P92" s="104">
+      <c r="P92" s="99">
         <v>23.61</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>43282</v>
       </c>
@@ -4182,44 +4179,44 @@
       <c r="D93" s="25">
         <v>231</v>
       </c>
-      <c r="E93" s="41">
+      <c r="E93" s="36">
         <v>1783.48</v>
       </c>
-      <c r="F93" s="48">
+      <c r="F93" s="43">
         <v>3210</v>
       </c>
-      <c r="G93" s="48">
+      <c r="G93" s="43">
         <v>340</v>
       </c>
-      <c r="H93" s="59">
+      <c r="H93" s="54">
         <v>98.89</v>
       </c>
-      <c r="I93" s="68">
+      <c r="I93" s="63">
         <v>984</v>
       </c>
-      <c r="J93" s="68">
+      <c r="J93" s="63">
         <v>34</v>
       </c>
-      <c r="K93" s="81">
+      <c r="K93" s="76">
         <v>445.18</v>
       </c>
-      <c r="L93" s="87">
+      <c r="L93" s="82">
         <v>767.36</v>
       </c>
-      <c r="M93" s="87">
+      <c r="M93" s="82">
         <v>259.72000000000003</v>
       </c>
-      <c r="N93" s="98">
+      <c r="N93" s="93">
         <v>415.48</v>
       </c>
-      <c r="O93" s="104">
+      <c r="O93" s="99">
         <v>814.58</v>
       </c>
-      <c r="P93" s="104">
+      <c r="P93" s="99">
         <v>271.52999999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>43313</v>
       </c>
@@ -4232,44 +4229,44 @@
       <c r="D94" s="25">
         <v>297</v>
       </c>
-      <c r="E94" s="41">
+      <c r="E94" s="36">
         <v>1876.79</v>
       </c>
-      <c r="F94" s="48">
+      <c r="F94" s="43">
         <v>3560</v>
       </c>
-      <c r="G94" s="48">
+      <c r="G94" s="43">
         <v>530</v>
       </c>
-      <c r="H94" s="59">
+      <c r="H94" s="54">
         <v>100.46</v>
       </c>
-      <c r="I94" s="68">
+      <c r="I94" s="63">
         <v>474</v>
       </c>
-      <c r="J94" s="68">
+      <c r="J94" s="63">
         <v>40</v>
       </c>
-      <c r="K94" s="81">
+      <c r="K94" s="76">
         <v>455.09</v>
       </c>
-      <c r="L94" s="87">
+      <c r="L94" s="82">
         <v>920.83</v>
       </c>
-      <c r="M94" s="87">
+      <c r="M94" s="82">
         <v>70.83</v>
       </c>
-      <c r="N94" s="98">
+      <c r="N94" s="93">
         <v>427.67</v>
       </c>
-      <c r="O94" s="104">
+      <c r="O94" s="99">
         <v>637.5</v>
       </c>
-      <c r="P94" s="104">
+      <c r="P94" s="99">
         <v>354.17</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>43344</v>
       </c>
@@ -4282,44 +4279,44 @@
       <c r="D95" s="25">
         <v>240</v>
       </c>
-      <c r="E95" s="41">
+      <c r="E95" s="36">
         <v>1732.5</v>
       </c>
-      <c r="F95" s="48">
+      <c r="F95" s="43">
         <v>2870</v>
       </c>
-      <c r="G95" s="48">
+      <c r="G95" s="43">
         <v>620</v>
       </c>
-      <c r="H95" s="59">
+      <c r="H95" s="54">
         <v>87.25</v>
       </c>
-      <c r="I95" s="68">
+      <c r="I95" s="63">
         <v>247</v>
       </c>
-      <c r="J95" s="68">
+      <c r="J95" s="63">
         <v>48</v>
       </c>
-      <c r="K95" s="81">
+      <c r="K95" s="76">
         <v>519.84</v>
       </c>
-      <c r="L95" s="87">
+      <c r="L95" s="82">
         <v>873.61</v>
       </c>
-      <c r="M95" s="87">
+      <c r="M95" s="82">
         <v>330.56</v>
       </c>
-      <c r="N95" s="98">
+      <c r="N95" s="93">
         <v>399.03</v>
       </c>
-      <c r="O95" s="104">
+      <c r="O95" s="99">
         <v>684.72</v>
       </c>
-      <c r="P95" s="104">
+      <c r="P95" s="99">
         <v>259.72000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>43374</v>
       </c>
@@ -4332,44 +4329,44 @@
       <c r="D96" s="25">
         <v>75</v>
       </c>
-      <c r="E96" s="41">
+      <c r="E96" s="36">
         <v>2000.84</v>
       </c>
-      <c r="F96" s="48">
+      <c r="F96" s="43">
         <v>3750</v>
       </c>
-      <c r="G96" s="48">
+      <c r="G96" s="43">
         <v>700</v>
       </c>
-      <c r="H96" s="59">
+      <c r="H96" s="54">
         <v>137.29</v>
       </c>
-      <c r="I96" s="68">
+      <c r="I96" s="63">
         <v>946</v>
       </c>
-      <c r="J96" s="68">
+      <c r="J96" s="63">
         <v>11</v>
       </c>
-      <c r="K96" s="81">
+      <c r="K96" s="76">
         <v>431.09318996415772</v>
       </c>
-      <c r="L96" s="87">
+      <c r="L96" s="82">
         <v>850</v>
       </c>
-      <c r="M96" s="87">
+      <c r="M96" s="82">
         <v>236.11</v>
       </c>
-      <c r="N96" s="98">
+      <c r="N96" s="93">
         <v>352.64336917562724</v>
       </c>
-      <c r="O96" s="104">
+      <c r="O96" s="99">
         <v>779.17</v>
       </c>
-      <c r="P96" s="104">
+      <c r="P96" s="99">
         <v>129.86000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>43405</v>
       </c>
@@ -4382,44 +4379,44 @@
       <c r="D97" s="25">
         <v>285</v>
       </c>
-      <c r="E97" s="41">
+      <c r="E97" s="36">
         <v>1905.63</v>
       </c>
-      <c r="F97" s="48">
+      <c r="F97" s="43">
         <v>3960</v>
       </c>
-      <c r="G97" s="48">
+      <c r="G97" s="43">
         <v>310</v>
       </c>
-      <c r="H97" s="59">
+      <c r="H97" s="54">
         <v>135.13999999999999</v>
       </c>
-      <c r="I97" s="68">
+      <c r="I97" s="63">
         <v>955</v>
       </c>
-      <c r="J97" s="68">
+      <c r="J97" s="63">
         <v>11</v>
       </c>
-      <c r="K97" s="81">
+      <c r="K97" s="76">
         <v>554.47</v>
       </c>
-      <c r="L97" s="87">
+      <c r="L97" s="82">
         <v>909.03</v>
       </c>
-      <c r="M97" s="87">
+      <c r="M97" s="82">
         <v>354.17</v>
       </c>
-      <c r="N97" s="98">
+      <c r="N97" s="93">
         <v>436.41</v>
       </c>
-      <c r="O97" s="104">
+      <c r="O97" s="99">
         <v>767.36</v>
       </c>
-      <c r="P97" s="104">
+      <c r="P97" s="99">
         <v>413.19</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>43435</v>
       </c>
@@ -4432,44 +4429,44 @@
       <c r="D98" s="25">
         <v>32</v>
       </c>
-      <c r="E98" s="41">
+      <c r="E98" s="36">
         <v>2032.54</v>
       </c>
-      <c r="F98" s="48">
+      <c r="F98" s="43">
         <v>4030</v>
       </c>
-      <c r="G98" s="48">
+      <c r="G98" s="43">
         <v>840</v>
       </c>
-      <c r="H98" s="59">
+      <c r="H98" s="54">
         <v>168.36</v>
       </c>
-      <c r="I98" s="68">
+      <c r="I98" s="63">
         <v>715</v>
       </c>
-      <c r="J98" s="68">
+      <c r="J98" s="63">
         <v>11</v>
       </c>
-      <c r="K98" s="81">
+      <c r="K98" s="76">
         <v>467.27150537634412</v>
       </c>
-      <c r="L98" s="87">
+      <c r="L98" s="82">
         <v>979.86</v>
       </c>
-      <c r="M98" s="87">
+      <c r="M98" s="82">
         <v>212.5</v>
       </c>
-      <c r="N98" s="98">
+      <c r="N98" s="93">
         <v>388.82168458781365</v>
       </c>
-      <c r="O98" s="104">
+      <c r="O98" s="99">
         <v>838.19</v>
       </c>
-      <c r="P98" s="104">
+      <c r="P98" s="99">
         <v>141.66999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>43466</v>
       </c>
@@ -4482,44 +4479,44 @@
       <c r="D99" s="26">
         <v>35</v>
       </c>
-      <c r="E99" s="42">
+      <c r="E99" s="37">
         <v>2100.16</v>
       </c>
-      <c r="F99" s="49">
+      <c r="F99" s="44">
         <v>4290</v>
       </c>
-      <c r="G99" s="49">
+      <c r="G99" s="44">
         <v>700</v>
       </c>
-      <c r="H99" s="60">
+      <c r="H99" s="55">
         <v>211.46</v>
       </c>
-      <c r="I99" s="69">
+      <c r="I99" s="64">
         <v>1038</v>
       </c>
-      <c r="J99" s="69">
+      <c r="J99" s="64">
         <v>54</v>
       </c>
-      <c r="K99" s="82">
+      <c r="K99" s="77">
         <v>488.22</v>
       </c>
-      <c r="L99" s="88">
+      <c r="L99" s="83">
         <v>909.03</v>
       </c>
-      <c r="M99" s="88">
+      <c r="M99" s="83">
         <v>118.06</v>
       </c>
-      <c r="N99" s="99">
+      <c r="N99" s="94">
         <v>507.26</v>
       </c>
-      <c r="O99" s="105">
+      <c r="O99" s="100">
         <v>979.86</v>
       </c>
-      <c r="P99" s="105">
+      <c r="P99" s="100">
         <v>247.22</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>43497</v>
       </c>
@@ -4532,44 +4529,44 @@
       <c r="D100" s="26">
         <v>48</v>
       </c>
-      <c r="E100" s="42">
+      <c r="E100" s="37">
         <v>2430.83</v>
       </c>
-      <c r="F100" s="49">
+      <c r="F100" s="44">
         <v>5150</v>
       </c>
-      <c r="G100" s="49">
+      <c r="G100" s="44">
         <v>840</v>
       </c>
-      <c r="H100" s="60">
+      <c r="H100" s="55">
         <v>201.97</v>
       </c>
-      <c r="I100" s="69">
+      <c r="I100" s="64">
         <v>958</v>
       </c>
-      <c r="J100" s="69">
+      <c r="J100" s="64">
         <v>12</v>
       </c>
-      <c r="K100" s="82">
+      <c r="K100" s="77">
         <v>558.23</v>
       </c>
-      <c r="L100" s="88">
+      <c r="L100" s="83">
         <v>944.44</v>
       </c>
-      <c r="M100" s="88">
+      <c r="M100" s="83">
         <v>283.33</v>
       </c>
-      <c r="N100" s="99">
+      <c r="N100" s="94">
         <v>697.79</v>
       </c>
-      <c r="O100" s="105">
+      <c r="O100" s="100">
         <v>1097.92</v>
       </c>
-      <c r="P100" s="105">
+      <c r="P100" s="100">
         <v>118.06</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>43525</v>
       </c>
@@ -4582,44 +4579,44 @@
       <c r="D101" s="26">
         <v>166</v>
       </c>
-      <c r="E101" s="42">
+      <c r="E101" s="37">
         <v>2329.7800000000002</v>
       </c>
-      <c r="F101" s="49">
+      <c r="F101" s="44">
         <v>4770</v>
       </c>
-      <c r="G101" s="49">
+      <c r="G101" s="44">
         <v>850</v>
       </c>
-      <c r="H101" s="60">
+      <c r="H101" s="55">
         <v>166.58</v>
       </c>
-      <c r="I101" s="69">
+      <c r="I101" s="64">
         <v>632</v>
       </c>
-      <c r="J101" s="69">
+      <c r="J101" s="64">
         <v>28</v>
       </c>
-      <c r="K101" s="82">
+      <c r="K101" s="77">
         <v>481.36</v>
       </c>
-      <c r="L101" s="88">
+      <c r="L101" s="83">
         <v>861.81</v>
       </c>
-      <c r="M101" s="88">
+      <c r="M101" s="83">
         <v>106.25</v>
       </c>
-      <c r="N101" s="99">
+      <c r="N101" s="94">
         <v>613.51</v>
       </c>
-      <c r="O101" s="105">
+      <c r="O101" s="100">
         <v>1050.69</v>
       </c>
-      <c r="P101" s="105">
+      <c r="P101" s="100">
         <v>484.03</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>43556</v>
       </c>
@@ -4632,44 +4629,44 @@
       <c r="D102" s="26">
         <v>204</v>
       </c>
-      <c r="E102" s="42">
+      <c r="E102" s="37">
         <v>2221.17</v>
       </c>
-      <c r="F102" s="49">
+      <c r="F102" s="44">
         <v>4600</v>
       </c>
-      <c r="G102" s="49">
+      <c r="G102" s="44">
         <v>710</v>
       </c>
-      <c r="H102" s="60">
+      <c r="H102" s="55">
         <v>138.55000000000001</v>
       </c>
-      <c r="I102" s="69">
+      <c r="I102" s="64">
         <v>923</v>
       </c>
-      <c r="J102" s="69">
+      <c r="J102" s="64">
         <v>45</v>
       </c>
-      <c r="K102" s="82">
+      <c r="K102" s="77">
         <v>498.59</v>
       </c>
-      <c r="L102" s="88">
+      <c r="L102" s="83">
         <v>885.41624999999999</v>
       </c>
-      <c r="M102" s="88">
+      <c r="M102" s="83">
         <v>271.52764999999999</v>
       </c>
-      <c r="N102" s="99">
+      <c r="N102" s="94">
         <v>531.25</v>
       </c>
-      <c r="O102" s="105">
+      <c r="O102" s="100">
         <v>861.80515000000003</v>
       </c>
-      <c r="P102" s="105">
+      <c r="P102" s="100">
         <v>283.33320000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>43586</v>
       </c>
@@ -4682,44 +4679,44 @@
       <c r="D103" s="26">
         <v>200</v>
       </c>
-      <c r="E103" s="42">
+      <c r="E103" s="37">
         <v>2195.9699999999998</v>
       </c>
-      <c r="F103" s="49">
+      <c r="F103" s="44">
         <v>4830</v>
       </c>
-      <c r="G103" s="49">
+      <c r="G103" s="44">
         <v>800</v>
       </c>
-      <c r="H103" s="60">
+      <c r="H103" s="55">
         <v>152.16999999999999</v>
       </c>
-      <c r="I103" s="69">
+      <c r="I103" s="64">
         <v>931</v>
       </c>
-      <c r="J103" s="69">
+      <c r="J103" s="64">
         <v>43</v>
       </c>
-      <c r="K103" s="82">
+      <c r="K103" s="77">
         <v>613.13</v>
       </c>
-      <c r="L103" s="88">
+      <c r="L103" s="83">
         <v>1121.53</v>
       </c>
-      <c r="M103" s="88">
+      <c r="M103" s="83">
         <v>318.75</v>
       </c>
-      <c r="N103" s="99">
+      <c r="N103" s="94">
         <v>357.97</v>
       </c>
-      <c r="O103" s="105">
+      <c r="O103" s="100">
         <v>755.56</v>
       </c>
-      <c r="P103" s="105">
+      <c r="P103" s="100">
         <v>11.81</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>43617</v>
       </c>
@@ -4732,44 +4729,44 @@
       <c r="D104" s="26">
         <v>5</v>
       </c>
-      <c r="E104" s="42">
+      <c r="E104" s="37">
         <v>1852.24</v>
       </c>
-      <c r="F104" s="49">
+      <c r="F104" s="44">
         <v>3830</v>
       </c>
-      <c r="G104" s="49">
+      <c r="G104" s="44">
         <v>680</v>
       </c>
-      <c r="H104" s="60">
+      <c r="H104" s="55">
         <v>109.25</v>
       </c>
-      <c r="I104" s="69">
+      <c r="I104" s="64">
         <v>784</v>
       </c>
-      <c r="J104" s="69">
+      <c r="J104" s="64">
         <v>8</v>
       </c>
-      <c r="K104" s="82">
+      <c r="K104" s="77">
         <v>548.16999999999996</v>
       </c>
-      <c r="L104" s="88">
+      <c r="L104" s="83">
         <v>1097.92</v>
       </c>
-      <c r="M104" s="88">
+      <c r="M104" s="83">
         <v>117.08</v>
       </c>
-      <c r="N104" s="99">
+      <c r="N104" s="94">
         <v>519.84</v>
       </c>
-      <c r="O104" s="105">
+      <c r="O104" s="100">
         <v>743.75</v>
       </c>
-      <c r="P104" s="105">
+      <c r="P104" s="100">
         <v>318.75</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>43647</v>
       </c>
@@ -4782,44 +4779,44 @@
       <c r="D105" s="26">
         <v>17</v>
       </c>
-      <c r="E105" s="42">
+      <c r="E105" s="37">
         <v>1961.13</v>
       </c>
-      <c r="F105" s="49">
+      <c r="F105" s="44">
         <v>4540</v>
       </c>
-      <c r="G105" s="49">
+      <c r="G105" s="44">
         <v>650</v>
       </c>
-      <c r="H105" s="60">
+      <c r="H105" s="55">
         <v>147.31</v>
       </c>
-      <c r="I105" s="69">
+      <c r="I105" s="64">
         <v>974</v>
       </c>
-      <c r="J105" s="69">
+      <c r="J105" s="64">
         <v>51</v>
       </c>
-      <c r="K105" s="82">
+      <c r="K105" s="77">
         <v>569.71</v>
       </c>
-      <c r="L105" s="88">
+      <c r="L105" s="83">
         <v>968.06</v>
       </c>
-      <c r="M105" s="88">
+      <c r="M105" s="83">
         <v>224.31</v>
       </c>
-      <c r="N105" s="99">
+      <c r="N105" s="94">
         <v>439.85</v>
       </c>
-      <c r="O105" s="105">
+      <c r="O105" s="100">
         <v>932.64</v>
       </c>
-      <c r="P105" s="105">
+      <c r="P105" s="100">
         <v>165.28</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>43678</v>
       </c>
@@ -4832,44 +4829,44 @@
       <c r="D106" s="26">
         <v>14</v>
       </c>
-      <c r="E106" s="42">
+      <c r="E106" s="37">
         <v>1922.15</v>
       </c>
-      <c r="F106" s="49">
+      <c r="F106" s="44">
         <v>3890</v>
       </c>
-      <c r="G106" s="49">
+      <c r="G106" s="44">
         <v>700</v>
       </c>
-      <c r="H106" s="60">
+      <c r="H106" s="55">
         <v>139.78</v>
       </c>
-      <c r="I106" s="69">
+      <c r="I106" s="64">
         <v>698</v>
       </c>
-      <c r="J106" s="69">
+      <c r="J106" s="64">
         <v>37</v>
       </c>
-      <c r="K106" s="82">
+      <c r="K106" s="77">
         <v>627.6</v>
       </c>
-      <c r="L106" s="88">
+      <c r="L106" s="83">
         <v>1097.92</v>
       </c>
-      <c r="M106" s="88">
+      <c r="M106" s="83">
         <v>247.92</v>
       </c>
-      <c r="N106" s="99">
+      <c r="N106" s="94">
         <v>560.19000000000005</v>
       </c>
-      <c r="O106" s="105">
+      <c r="O106" s="100">
         <v>850</v>
       </c>
-      <c r="P106" s="105">
+      <c r="P106" s="100">
         <v>306.94</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>43709</v>
       </c>
@@ -4882,44 +4879,44 @@
       <c r="D107" s="26">
         <v>18</v>
       </c>
-      <c r="E107" s="42">
+      <c r="E107" s="37">
         <v>1991.5</v>
       </c>
-      <c r="F107" s="49">
+      <c r="F107" s="44">
         <v>3250</v>
       </c>
-      <c r="G107" s="49">
+      <c r="G107" s="44">
         <v>686</v>
       </c>
-      <c r="H107" s="60">
+      <c r="H107" s="55">
         <v>134.77000000000001</v>
       </c>
-      <c r="I107" s="69">
+      <c r="I107" s="64">
         <v>586</v>
       </c>
-      <c r="J107" s="69">
+      <c r="J107" s="64">
         <v>12</v>
       </c>
-      <c r="K107" s="82">
+      <c r="K107" s="77">
         <v>696.53</v>
       </c>
-      <c r="L107" s="88">
+      <c r="L107" s="83">
         <v>991.67</v>
       </c>
-      <c r="M107" s="88">
+      <c r="M107" s="83">
         <v>448.61</v>
       </c>
-      <c r="N107" s="99">
+      <c r="N107" s="94">
         <v>509.21</v>
       </c>
-      <c r="O107" s="105">
+      <c r="O107" s="100">
         <v>755.56</v>
       </c>
-      <c r="P107" s="105">
+      <c r="P107" s="100">
         <v>295.14</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>43739</v>
       </c>
@@ -4932,44 +4929,44 @@
       <c r="D108" s="26">
         <v>5</v>
       </c>
-      <c r="E108" s="42">
+      <c r="E108" s="37">
         <v>1926.6</v>
       </c>
-      <c r="F108" s="49">
+      <c r="F108" s="44">
         <v>3360</v>
       </c>
-      <c r="G108" s="49">
+      <c r="G108" s="44">
         <v>700</v>
       </c>
-      <c r="H108" s="60">
+      <c r="H108" s="55">
         <v>111.17</v>
       </c>
-      <c r="I108" s="69">
+      <c r="I108" s="64">
         <v>636</v>
       </c>
-      <c r="J108" s="69">
+      <c r="J108" s="64">
         <v>49</v>
       </c>
-      <c r="K108" s="82">
+      <c r="K108" s="77">
         <v>542.29</v>
       </c>
-      <c r="L108" s="88">
+      <c r="L108" s="83">
         <v>1015.28</v>
       </c>
-      <c r="M108" s="88">
+      <c r="M108" s="83">
         <v>295.14</v>
       </c>
-      <c r="N108" s="99">
+      <c r="N108" s="94">
         <v>461.56</v>
       </c>
-      <c r="O108" s="105">
+      <c r="O108" s="100">
         <v>720.14</v>
       </c>
-      <c r="P108" s="105">
+      <c r="P108" s="100">
         <v>342.36</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>43770</v>
       </c>
@@ -4982,44 +4979,44 @@
       <c r="D109" s="26">
         <v>28</v>
       </c>
-      <c r="E109" s="42">
+      <c r="E109" s="37">
         <v>1965.06</v>
       </c>
-      <c r="F109" s="49">
+      <c r="F109" s="44">
         <v>4330</v>
       </c>
-      <c r="G109" s="49">
+      <c r="G109" s="44">
         <v>550</v>
       </c>
-      <c r="H109" s="60">
+      <c r="H109" s="55">
         <v>122.75</v>
       </c>
-      <c r="I109" s="69">
+      <c r="I109" s="64">
         <v>1020</v>
       </c>
-      <c r="J109" s="70">
+      <c r="J109" s="65">
         <v>15.77</v>
       </c>
-      <c r="K109" s="82">
+      <c r="K109" s="77">
         <v>446.25</v>
       </c>
-      <c r="L109" s="88">
+      <c r="L109" s="83">
         <v>897.22</v>
       </c>
-      <c r="M109" s="88">
+      <c r="M109" s="83">
         <v>188.89</v>
       </c>
-      <c r="N109" s="99">
+      <c r="N109" s="94">
         <v>495.05</v>
       </c>
-      <c r="O109" s="105">
+      <c r="O109" s="100">
         <v>696.53</v>
       </c>
-      <c r="P109" s="105">
+      <c r="P109" s="100">
         <v>354.17</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>43800</v>
       </c>
@@ -5032,44 +5029,44 @@
       <c r="D110" s="26">
         <v>35</v>
       </c>
-      <c r="E110" s="42">
+      <c r="E110" s="37">
         <v>2015.87</v>
       </c>
-      <c r="F110" s="49">
+      <c r="F110" s="44">
         <v>4590</v>
       </c>
-      <c r="G110" s="49">
+      <c r="G110" s="44">
         <v>580</v>
       </c>
-      <c r="H110" s="60">
+      <c r="H110" s="55">
         <v>157.06</v>
       </c>
-      <c r="I110" s="69">
+      <c r="I110" s="64">
         <v>1112</v>
       </c>
-      <c r="J110" s="69">
+      <c r="J110" s="64">
         <v>63</v>
       </c>
-      <c r="K110" s="82">
+      <c r="K110" s="77">
         <v>552.20000000000005</v>
       </c>
-      <c r="L110" s="88">
+      <c r="L110" s="83">
         <v>979.86</v>
       </c>
-      <c r="M110" s="88">
+      <c r="M110" s="83">
         <v>295.14</v>
       </c>
-      <c r="N110" s="99">
+      <c r="N110" s="94">
         <v>491.26</v>
       </c>
-      <c r="O110" s="105">
+      <c r="O110" s="100">
         <v>625.69000000000005</v>
       </c>
-      <c r="P110" s="105">
+      <c r="P110" s="100">
         <v>318.75</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="9">
         <v>43831</v>
       </c>
@@ -5082,44 +5079,44 @@
       <c r="D111" s="27">
         <v>10</v>
       </c>
-      <c r="E111" s="43">
+      <c r="E111" s="38">
         <v>2117.2800000000002</v>
       </c>
-      <c r="F111" s="50">
+      <c r="F111" s="45">
         <v>4360</v>
       </c>
-      <c r="G111" s="50">
+      <c r="G111" s="45">
         <v>740</v>
       </c>
-      <c r="H111" s="61">
+      <c r="H111" s="56">
         <v>196.38</v>
       </c>
-      <c r="I111" s="71">
+      <c r="I111" s="66">
         <v>934</v>
       </c>
-      <c r="J111" s="71">
+      <c r="J111" s="66">
         <v>11</v>
       </c>
-      <c r="K111" s="83">
+      <c r="K111" s="78">
         <v>732.33</v>
       </c>
-      <c r="L111" s="89">
+      <c r="L111" s="84">
         <v>956.25</v>
       </c>
-      <c r="M111" s="89">
+      <c r="M111" s="84">
         <v>306.94</v>
       </c>
-      <c r="N111" s="100">
+      <c r="N111" s="95">
         <v>546.1</v>
       </c>
-      <c r="O111" s="106">
+      <c r="O111" s="101">
         <v>767.36</v>
       </c>
-      <c r="P111" s="106">
+      <c r="P111" s="101">
         <v>247.92</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="9">
         <v>43862</v>
       </c>
@@ -5132,44 +5129,44 @@
       <c r="D112" s="27">
         <v>46</v>
       </c>
-      <c r="E112" s="43">
+      <c r="E112" s="38">
         <v>2580.8200000000002</v>
       </c>
-      <c r="F112" s="50">
+      <c r="F112" s="45">
         <v>4830</v>
       </c>
-      <c r="G112" s="50">
+      <c r="G112" s="45">
         <v>900</v>
       </c>
-      <c r="H112" s="61">
+      <c r="H112" s="56">
         <v>243.77</v>
       </c>
-      <c r="I112" s="71">
+      <c r="I112" s="66">
         <v>966</v>
       </c>
-      <c r="J112" s="71">
+      <c r="J112" s="66">
         <v>22</v>
       </c>
-      <c r="K112" s="83">
+      <c r="K112" s="78">
         <v>441.69</v>
       </c>
-      <c r="L112" s="89">
+      <c r="L112" s="84">
         <v>897.22</v>
       </c>
-      <c r="M112" s="89">
+      <c r="M112" s="84">
         <v>236.11</v>
       </c>
-      <c r="N112" s="100">
+      <c r="N112" s="95">
         <v>585.39</v>
       </c>
-      <c r="O112" s="106">
+      <c r="O112" s="101">
         <v>850</v>
       </c>
-      <c r="P112" s="106">
+      <c r="P112" s="101">
         <v>519.44000000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="9">
         <v>43891</v>
       </c>
@@ -5182,44 +5179,44 @@
       <c r="D113" s="27">
         <v>13</v>
       </c>
-      <c r="E113" s="43">
+      <c r="E113" s="38">
         <v>2400.9699999999998</v>
       </c>
-      <c r="F113" s="50">
+      <c r="F113" s="45">
         <v>4870</v>
       </c>
-      <c r="G113" s="50">
+      <c r="G113" s="45">
         <v>700</v>
       </c>
-      <c r="H113" s="61">
+      <c r="H113" s="56">
         <v>161.19999999999999</v>
       </c>
-      <c r="I113" s="71">
+      <c r="I113" s="66">
         <v>1140</v>
       </c>
-      <c r="J113" s="71">
+      <c r="J113" s="66">
         <v>45</v>
       </c>
-      <c r="K113" s="83">
+      <c r="K113" s="78">
         <v>418.91</v>
       </c>
-      <c r="L113" s="89">
+      <c r="L113" s="84">
         <v>956.25</v>
       </c>
-      <c r="M113" s="89">
+      <c r="M113" s="84">
         <v>484.03</v>
       </c>
-      <c r="N113" s="100">
+      <c r="N113" s="95">
         <v>266.2</v>
       </c>
-      <c r="O113" s="106">
+      <c r="O113" s="101">
         <v>755.56</v>
       </c>
-      <c r="P113" s="106">
+      <c r="P113" s="101">
         <v>472.22</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="9">
         <v>43922</v>
       </c>
@@ -5232,44 +5229,44 @@
       <c r="D114" s="27">
         <v>20</v>
       </c>
-      <c r="E114" s="43">
+      <c r="E114" s="38">
         <v>1985.39</v>
       </c>
-      <c r="F114" s="50">
+      <c r="F114" s="45">
         <v>3740</v>
       </c>
-      <c r="G114" s="50">
+      <c r="G114" s="45">
         <v>570</v>
       </c>
-      <c r="H114" s="61">
+      <c r="H114" s="56">
         <v>112.04</v>
       </c>
-      <c r="I114" s="71">
+      <c r="I114" s="66">
         <v>535</v>
       </c>
-      <c r="J114" s="71">
+      <c r="J114" s="66">
         <v>45</v>
       </c>
-      <c r="K114" s="83">
+      <c r="K114" s="78">
         <v>536.37</v>
       </c>
-      <c r="L114" s="89">
+      <c r="L114" s="84">
         <v>920.83</v>
       </c>
-      <c r="M114" s="89">
+      <c r="M114" s="84">
         <v>236.11</v>
       </c>
-      <c r="N114" s="100">
+      <c r="N114" s="95">
         <v>503.31</v>
       </c>
-      <c r="O114" s="106">
+      <c r="O114" s="101">
         <v>708.33</v>
       </c>
-      <c r="P114" s="106">
+      <c r="P114" s="101">
         <v>94.44</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
         <v>43952</v>
       </c>
@@ -5282,44 +5279,44 @@
       <c r="D115" s="27">
         <v>10</v>
       </c>
-      <c r="E115" s="43">
+      <c r="E115" s="38">
         <v>1999.63</v>
       </c>
-      <c r="F115" s="50">
+      <c r="F115" s="45">
         <v>3650</v>
       </c>
-      <c r="G115" s="50">
+      <c r="G115" s="45">
         <v>466</v>
       </c>
-      <c r="H115" s="61">
+      <c r="H115" s="56">
         <v>102.7</v>
       </c>
-      <c r="I115" s="71">
+      <c r="I115" s="66">
         <v>835</v>
       </c>
-      <c r="J115" s="71">
+      <c r="J115" s="66">
         <v>43</v>
       </c>
-      <c r="K115" s="83">
+      <c r="K115" s="78">
         <v>571.24</v>
       </c>
-      <c r="L115" s="89">
+      <c r="L115" s="84">
         <v>873.61</v>
       </c>
-      <c r="M115" s="89">
+      <c r="M115" s="84">
         <v>342.36</v>
       </c>
-      <c r="N115" s="100">
+      <c r="N115" s="95">
         <v>410.91</v>
       </c>
-      <c r="O115" s="106">
+      <c r="O115" s="101">
         <v>755.56</v>
       </c>
-      <c r="P115" s="106">
+      <c r="P115" s="101">
         <v>271.52999999999997</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="9">
         <v>43983</v>
       </c>
@@ -5332,44 +5329,44 @@
       <c r="D116" s="27">
         <v>12</v>
       </c>
-      <c r="E116" s="43">
+      <c r="E116" s="38">
         <v>2065.7600000000002</v>
       </c>
-      <c r="F116" s="50">
+      <c r="F116" s="45">
         <v>4660</v>
       </c>
-      <c r="G116" s="50">
+      <c r="G116" s="45">
         <v>2.4900000000000002</v>
       </c>
-      <c r="H116" s="61">
+      <c r="H116" s="56">
         <v>119.92</v>
       </c>
-      <c r="I116" s="71">
+      <c r="I116" s="66">
         <v>1076</v>
       </c>
-      <c r="J116" s="71">
+      <c r="J116" s="66">
         <v>11</v>
       </c>
-      <c r="K116" s="83">
+      <c r="K116" s="78">
         <v>408.08</v>
       </c>
-      <c r="L116" s="89">
+      <c r="L116" s="84">
         <v>885.42</v>
       </c>
-      <c r="M116" s="89">
+      <c r="M116" s="84">
         <v>306.94</v>
       </c>
-      <c r="N116" s="100">
+      <c r="N116" s="95">
         <v>399.42</v>
       </c>
-      <c r="O116" s="106">
+      <c r="O116" s="101">
         <v>790.97</v>
       </c>
-      <c r="P116" s="106">
+      <c r="P116" s="101">
         <v>259.72000000000003</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
         <v>44013</v>
       </c>
@@ -5382,44 +5379,44 @@
       <c r="D117" s="27">
         <v>26</v>
       </c>
-      <c r="E117" s="43">
+      <c r="E117" s="38">
         <v>1258.1500000000001</v>
       </c>
-      <c r="F117" s="50">
+      <c r="F117" s="45">
         <v>3760</v>
       </c>
-      <c r="G117" s="50">
+      <c r="G117" s="45">
         <v>82.6</v>
       </c>
-      <c r="H117" s="61">
+      <c r="H117" s="56">
         <v>122.75</v>
       </c>
-      <c r="I117" s="71">
+      <c r="I117" s="66">
         <v>1035</v>
       </c>
-      <c r="J117" s="71">
+      <c r="J117" s="66">
         <v>68</v>
       </c>
-      <c r="K117" s="83">
+      <c r="K117" s="78">
         <v>432.23566308243699</v>
       </c>
-      <c r="L117" s="89">
+      <c r="L117" s="84">
         <v>1015.2773</v>
       </c>
-      <c r="M117" s="89">
+      <c r="M117" s="84">
         <v>82.638850000000005</v>
       </c>
-      <c r="N117" s="100">
+      <c r="N117" s="95">
         <v>284.07594086021402</v>
       </c>
-      <c r="O117" s="106">
+      <c r="O117" s="101">
         <v>566.66640000000007</v>
       </c>
-      <c r="P117" s="106">
+      <c r="P117" s="101">
         <v>236.11099999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
         <v>44044</v>
       </c>
@@ -5432,44 +5429,44 @@
       <c r="D118" s="27">
         <v>82.6</v>
       </c>
-      <c r="E118" s="43">
+      <c r="E118" s="38">
         <v>1946.16</v>
       </c>
-      <c r="F118" s="50">
+      <c r="F118" s="45">
         <v>3990</v>
       </c>
-      <c r="G118" s="50">
+      <c r="G118" s="45">
         <v>500</v>
       </c>
-      <c r="H118" s="61">
+      <c r="H118" s="56">
         <v>116.35976702508961</v>
       </c>
-      <c r="I118" s="71">
+      <c r="I118" s="66">
         <v>1040</v>
       </c>
-      <c r="J118" s="71">
+      <c r="J118" s="66">
         <v>16</v>
       </c>
-      <c r="K118" s="83">
+      <c r="K118" s="78">
         <v>301.23207885304657</v>
       </c>
-      <c r="L118" s="89">
+      <c r="L118" s="84">
         <v>790.97</v>
       </c>
-      <c r="M118" s="89">
+      <c r="M118" s="84">
         <v>200.69</v>
       </c>
-      <c r="N118" s="100">
+      <c r="N118" s="95">
         <v>402.91218637992824</v>
       </c>
-      <c r="O118" s="106">
+      <c r="O118" s="101">
         <v>873.61</v>
       </c>
-      <c r="P118" s="106">
+      <c r="P118" s="101">
         <v>283.33</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
         <v>44075</v>
       </c>
@@ -5482,44 +5479,44 @@
       <c r="D119" s="27">
         <v>44</v>
       </c>
-      <c r="E119" s="43">
+      <c r="E119" s="38">
         <v>1876.54</v>
       </c>
-      <c r="F119" s="50">
+      <c r="F119" s="45">
         <v>3630</v>
       </c>
-      <c r="G119" s="50">
+      <c r="G119" s="45">
         <v>460</v>
       </c>
-      <c r="H119" s="61">
+      <c r="H119" s="56">
         <v>117.43</v>
       </c>
-      <c r="I119" s="71">
+      <c r="I119" s="66">
         <v>1025</v>
       </c>
-      <c r="J119" s="71">
+      <c r="J119" s="66">
         <v>73</v>
       </c>
-      <c r="K119" s="83">
+      <c r="K119" s="78">
         <v>316</v>
       </c>
-      <c r="L119" s="89">
+      <c r="L119" s="84">
         <v>850</v>
       </c>
-      <c r="M119" s="89">
+      <c r="M119" s="84">
         <v>177.08</v>
       </c>
-      <c r="N119" s="100">
+      <c r="N119" s="95">
         <v>407.69</v>
       </c>
-      <c r="O119" s="106">
+      <c r="O119" s="101">
         <v>897.22</v>
       </c>
-      <c r="P119" s="106">
+      <c r="P119" s="101">
         <v>342.36</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="9">
         <v>44105</v>
       </c>
@@ -5532,44 +5529,44 @@
       <c r="D120" s="27">
         <v>79</v>
       </c>
-      <c r="E120" s="43">
+      <c r="E120" s="38">
         <v>1952.06</v>
       </c>
-      <c r="F120" s="50">
+      <c r="F120" s="45">
         <v>4500</v>
       </c>
-      <c r="G120" s="50">
+      <c r="G120" s="45">
         <v>580</v>
       </c>
-      <c r="H120" s="61">
+      <c r="H120" s="56">
         <v>118.94</v>
       </c>
-      <c r="I120" s="71">
+      <c r="I120" s="66">
         <v>907</v>
       </c>
-      <c r="J120" s="71">
+      <c r="J120" s="66">
         <v>69</v>
       </c>
-      <c r="K120" s="83">
+      <c r="K120" s="78">
         <v>356.07</v>
       </c>
-      <c r="L120" s="89">
+      <c r="L120" s="84">
         <v>850</v>
       </c>
-      <c r="M120" s="89">
+      <c r="M120" s="84">
         <v>271.52999999999997</v>
       </c>
-      <c r="N120" s="100">
+      <c r="N120" s="95">
         <v>407.1</v>
       </c>
-      <c r="O120" s="106">
+      <c r="O120" s="101">
         <v>920</v>
       </c>
-      <c r="P120" s="106">
+      <c r="P120" s="101">
         <v>271.52999999999997</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
         <v>44136</v>
       </c>
@@ -5582,44 +5579,44 @@
       <c r="D121" s="27">
         <v>36</v>
       </c>
-      <c r="E121" s="43">
+      <c r="E121" s="38">
         <v>2133.34</v>
       </c>
-      <c r="F121" s="50">
+      <c r="F121" s="45">
         <v>4250</v>
       </c>
-      <c r="G121" s="50">
+      <c r="G121" s="45">
         <v>690</v>
       </c>
-      <c r="H121" s="61">
+      <c r="H121" s="56">
         <v>222.61</v>
       </c>
-      <c r="I121" s="71">
+      <c r="I121" s="66">
         <v>1198</v>
       </c>
-      <c r="J121" s="71">
+      <c r="J121" s="66">
         <v>61</v>
       </c>
-      <c r="K121" s="83">
+      <c r="K121" s="78">
         <v>116.48</v>
       </c>
-      <c r="L121" s="89">
+      <c r="L121" s="84">
         <v>684.72</v>
       </c>
-      <c r="M121" s="89">
+      <c r="M121" s="84">
         <v>543.05999999999995</v>
       </c>
-      <c r="N121" s="100">
+      <c r="N121" s="95">
         <v>243.98</v>
       </c>
-      <c r="O121" s="106">
+      <c r="O121" s="101">
         <v>885.42</v>
       </c>
-      <c r="P121" s="106">
+      <c r="P121" s="101">
         <v>566.66999999999996</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="9">
         <v>44166</v>
       </c>
@@ -5632,40 +5629,40 @@
       <c r="D122" s="27">
         <v>81</v>
       </c>
-      <c r="E122" s="43">
+      <c r="E122" s="38">
         <v>2096.27</v>
       </c>
-      <c r="F122" s="50">
+      <c r="F122" s="45">
         <v>4050</v>
       </c>
-      <c r="G122" s="50">
+      <c r="G122" s="45">
         <v>600</v>
       </c>
-      <c r="H122" s="61">
+      <c r="H122" s="56">
         <v>263.92</v>
       </c>
-      <c r="I122" s="71">
+      <c r="I122" s="66">
         <v>539</v>
       </c>
-      <c r="J122" s="71">
+      <c r="J122" s="66">
         <v>27</v>
       </c>
-      <c r="K122" s="83">
+      <c r="K122" s="78">
         <v>438.33</v>
       </c>
-      <c r="L122" s="89">
+      <c r="L122" s="84">
         <v>920.83</v>
       </c>
-      <c r="M122" s="89">
+      <c r="M122" s="84">
         <v>47.22</v>
       </c>
-      <c r="N122" s="100">
+      <c r="N122" s="95">
         <v>438.71</v>
       </c>
-      <c r="O122" s="106">
+      <c r="O122" s="101">
         <v>897.22</v>
       </c>
-      <c r="P122" s="106">
+      <c r="P122" s="101">
         <v>802.78</v>
       </c>
     </row>
@@ -5682,24 +5679,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/data/Monitoring_points/vazoes_corrigidas.xlsx
+++ b/data/Monitoring_points/vazoes_corrigidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncost\OneDrive\Área de Trabalho\Doutorado\UFPR\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EA12C8-7C9D-4724-91F4-977F65D90E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0810DE9-4B88-4135-B2C6-6F2C79C4CC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>EPC VILA ZILDA - VAZÕES - 2011 A 2020</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Vazão (L/s)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>vazao_maxima</t>
@@ -823,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51:J56"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,22 +851,22 @@
       <c r="C1" s="102"/>
       <c r="D1" s="103"/>
       <c r="E1" s="104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="105"/>
       <c r="G1" s="105"/>
       <c r="H1" s="104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="105"/>
       <c r="J1" s="106"/>
       <c r="K1" s="104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L1" s="105"/>
       <c r="M1" s="106"/>
       <c r="N1" s="104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O1" s="105"/>
       <c r="P1" s="105"/>
@@ -882,46 +879,46 @@
         <v>2</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>5</v>
       </c>
       <c r="H2" s="46" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="46" t="s">
         <v>4</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>5</v>
       </c>
       <c r="K2" s="68" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="68" t="s">
         <v>4</v>
-      </c>
-      <c r="M2" s="68" t="s">
-        <v>5</v>
       </c>
       <c r="N2" s="85" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="85" t="s">
         <v>4</v>
-      </c>
-      <c r="P2" s="85" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1240,9 +1237,7 @@
       <c r="A18" s="3">
         <v>41000</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="B18" s="11"/>
       <c r="E18" s="30">
         <v>2530</v>
       </c>
@@ -1520,9 +1515,7 @@
       <c r="A32" s="3">
         <v>41426</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>3</v>
-      </c>
+      <c r="B32" s="12"/>
       <c r="E32" s="31">
         <v>2189.3704106280188</v>
       </c>
@@ -1540,9 +1533,7 @@
       <c r="A33" s="3">
         <v>41456</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>3</v>
-      </c>
+      <c r="B33" s="12"/>
       <c r="E33" s="31">
         <v>2338.7450911640954</v>
       </c>
